--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macropleb/Documents/Scriptz/GlobalEnv/NetLiquidity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/venv/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F410F152-3D27-0E4B-AD1F-DFF56BBCFCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8156CAF8-F882-1B48-B64F-BD5A62DA5CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{3E6ED271-2955-3F43-9C6B-4DBC9255C0DF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{3E6ED271-2955-3F43-9C6B-4DBC9255C0DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>Additional FRED Data</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>API Key</t>
-  </si>
-  <si>
-    <t>f632119c4e0599a3229fec5a9ac83b1c</t>
   </si>
   <si>
     <t>NASDAQ</t>
@@ -279,16 +276,7 @@
     </r>
   </si>
   <si>
-    <t>2020-07-01</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>Yscale</t>
-  </si>
-  <si>
-    <t>linear</t>
   </si>
   <si>
     <t xml:space="preserve">Set this to either "log"or "linear", to set yscale for the main figure on both left and right axis. </t>
@@ -349,22 +337,118 @@
     <t>Enter any word here to save the FRED series to disk. Leave blank to not save. The data will be saved in your working directory/FRED_Data/</t>
   </si>
   <si>
+    <t>XAUUSD,OANDA</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>Gold Spot</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>NLQ_Color</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>NLQ_MA (days)</t>
+  </si>
+  <si>
+    <t>Set color for the NLQ trace here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can optionally add a moving average atop the NLQ trace. Set period here. Leave blank for no MA. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>linear</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
     <t>darkorange</t>
   </si>
   <si>
-    <t>XAUUSD,OANDA</t>
-  </si>
-  <si>
-    <t>tv</t>
-  </si>
-  <si>
-    <t>Gold Spot</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>gold</t>
+    <t>MainFig FaceColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can specify the background color for the main plot here. Leave blank to use white. </t>
+  </si>
+  <si>
+    <t>dodgerblue</t>
   </si>
 </sst>
 </file>
@@ -432,7 +516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +544,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,12 +673,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -601,6 +700,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -681,6 +783,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B286F37-C07D-A046-B77A-CC8ECB184B27}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1013,197 +1121,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>18</v>
+      <c r="F1" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>42</v>
+      <c r="A8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>36</v>
+      <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5"/>
+      <c r="A10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>38</v>
+      <c r="A11" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1213,8 +1289,12 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1223,8 +1303,12 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1232,8 +1316,15 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1242,7 +1333,7 @@
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1256,26 +1347,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>18</v>
+      <c r="F1" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -1288,23 +1379,23 @@
       <c r="Q1" s="15"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>21</v>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
@@ -1318,23 +1409,23 @@
       <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>20</v>
+      <c r="E3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
@@ -1348,23 +1439,23 @@
       <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>19</v>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="20"/>
@@ -1378,46 +1469,46 @@
       <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>22</v>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -1431,11 +1522,11 @@
       <c r="R6" s="15"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
@@ -1450,11 +1541,11 @@
       <c r="R7" s="18"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>41</v>
+      <c r="A8" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
@@ -1469,14 +1560,14 @@
       <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="20"/>
@@ -1491,25 +1582,25 @@
       <c r="R9" s="21"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>24</v>
+      <c r="A10" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>38</v>
+      <c r="A11" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
@@ -1523,9 +1614,15 @@
       <c r="R11" s="24"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="H12" s="25"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
@@ -1539,6 +1636,15 @@
       <c r="R12" s="27"/>
     </row>
     <row r="13" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
       <c r="H13" s="25"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
@@ -1555,6 +1661,15 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
       <c r="H14" s="25"/>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
@@ -1656,7 +1771,7 @@
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="H22" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/venv/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8156CAF8-F882-1B48-B64F-BD5A62DA5CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F58849-896F-A747-B67A-91977F01F911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{3E6ED271-2955-3F43-9C6B-4DBC9255C0DF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>Additional FRED Data</t>
   </si>
@@ -142,40 +142,6 @@
   </si>
   <si>
     <t>M2MNS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>APIs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> include 'tv' for trading view, 'coingecko', 'yfinance', 'alpha' for alpha vantage or any of the expected sources for pandas datareader (below). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">If using 'tv' for tradingView you must provide the api as a tuple with both ticker and exchange. e.g AAPL,NASDAQ or AUDUSD,FX_IDC - the full python formatting for a 2 string tuple is not necessary - e.g ("Value1","Value2"), you can just put in two words separated by a comma. </t>
-    </r>
   </si>
   <si>
     <r>
@@ -448,7 +414,77 @@
     <t xml:space="preserve">You can specify the background color for the main plot here. Leave blank to use white. </t>
   </si>
   <si>
-    <t>dodgerblue</t>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>fuchsia</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>APIs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> include 'tv' for trading view, 'coingecko', 'yfinance', 'alpha' for alpha vantage or any of the expected sources for pandas datareader (below). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">If using 'tv' for tradingView you must provide the api as a tuple with both ticker and exchange. e.g AAPL,NASDAQ or AUDUSD,FX_IDC - the full python formatting for a 2 string tuple is not necessary - e.g ("Value1","Value2"),  just put in two words separated by a comma. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Finding the ticker for your asset: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Look for the asset on yahoo finance, trading view, google finance etc. Copy ticker. Also copy
+exchange from trading view if using trading view, e.g OANDA, FX, FX_IDC, NSE, NASDAQ, BINANCE. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -470,12 +506,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFCE9178"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -514,6 +544,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF8080"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -679,13 +715,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -703,6 +738,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -730,31 +771,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -784,12 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1107,7 +1143,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1121,112 +1157,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>55</v>
+      <c r="F2" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1235,11 +1295,11 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1249,11 +1309,11 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1263,7 +1323,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="4"/>
@@ -1275,11 +1335,11 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>35</v>
+      <c r="A11" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1289,11 +1349,11 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>47</v>
+      <c r="A12" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1303,8 +1363,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
-        <v>49</v>
+      <c r="A13" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="B13" s="1">
         <v>7</v>
@@ -1317,8 +1377,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
-        <v>56</v>
+      <c r="A14" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B14" s="1"/>
     </row>
@@ -1333,7 +1393,7 @@
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1347,220 +1407,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="15"/>
+      <c r="H1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="15"/>
+      <c r="H6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="19"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>37</v>
+      <c r="A8" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="19"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1569,20 +1629,20 @@
       <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="21"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
@@ -1590,291 +1650,291 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="H11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="28"/>
+    </row>
+    <row r="13" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="27"/>
-    </row>
-    <row r="13" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="27"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="28"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="27"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="28"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="27"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="28"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="27"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="28"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="27"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="28"/>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="27"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="28"/>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="27"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="28"/>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="30"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="31"/>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H22" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="33"/>
+      <c r="H22" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="34"/>
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="36"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="37"/>
     </row>
     <row r="24" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="36"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="37"/>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="36"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H26" s="34"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="36"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="37"/>
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H27" s="34"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="36"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="37"/>
     </row>
     <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="36"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="37"/>
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="H29" s="37"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="39"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/venv/Plebs_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE617D84-D9FE-CB42-9BE0-932B847B9A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F10575-F0A0-364D-93DA-54B104C1F16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{3E6ED271-2955-3F43-9C6B-4DBC9255C0DF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{3E6ED271-2955-3F43-9C6B-4DBC9255C0DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>Additional FRED Data</t>
   </si>
@@ -54,13 +54,7 @@
     <t>^NDX</t>
   </si>
   <si>
-    <t>BTC</t>
-  </si>
-  <si>
     <t>Price API</t>
-  </si>
-  <si>
-    <t>coingecko</t>
   </si>
   <si>
     <t>API Key</t>
@@ -248,9 +242,6 @@
     <t>SaveFREDData</t>
   </si>
   <si>
-    <t>yep</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -531,9 +522,6 @@
     <t xml:space="preserve">Font family choices are ‘serif’, ‘sans-serif’, ‘cursive’, ‘fantasy’, or ‘monospace’. Leave blank to use default 'sans-serif'. Changes all fonts on charts. </t>
   </si>
   <si>
-    <t>2020-08-01</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -557,7 +545,25 @@
     </r>
   </si>
   <si>
-    <t>FEDFUNDS</t>
+    <t>IncludeBOJ</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>NLQ Source</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>BTCUSD,INDEX</t>
+  </si>
+  <si>
+    <t>2010-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add BOJ balance sheet to NLQ. Put any text in here to add BOJ balance sheet (in USD) to all NLQ  series. Leave blank to use regular all US NLQ series. </t>
   </si>
 </sst>
 </file>
@@ -625,7 +631,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,6 +689,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD12FBB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -843,6 +855,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,6 +950,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD12FBB"/>
+      <color rgb="FFA400FA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1240,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B286F37-C07D-A046-B77A-CC8ECB184B27}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:F12"/>
+    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="B18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1259,7 +1283,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1268,16 +1292,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -1286,22 +1310,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G2" s="15">
-        <v>180</v>
+        <v>365</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -1310,22 +1334,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="15">
-        <v>365</v>
+        <v>730</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -1333,23 +1349,14 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="15">
-        <v>730</v>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
+        <f>730*2</f>
+        <v>1460</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -1357,52 +1364,34 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="15"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="15">
+        <v>2190</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="15"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1413,11 +1402,9 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1426,13 +1413,12 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1441,9 +1427,11 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1453,11 +1441,9 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1466,11 +1452,11 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>44</v>
+      <c r="A12" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1480,11 +1466,11 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="1">
-        <v>9</v>
+      <c r="A13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1493,29 +1479,46 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="16" t="s">
-        <v>59</v>
-      </c>
+      <c r="A14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>65</v>
+      <c r="A16" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
         <v>66</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1528,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55770C7-DD42-8D4B-9266-32E10A74C94A}">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1546,7 +1549,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1555,65 +1558,65 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" s="17"/>
-      <c r="I1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="22"/>
+      <c r="I1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="24"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="27"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>4</v>
@@ -1622,29 +1625,29 @@
         <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="27"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>5</v>
@@ -1653,41 +1656,41 @@
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="30"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1696,417 +1699,425 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="I6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="22"/>
+      <c r="I6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="24"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="25"/>
+        <v>23</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="27"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="28"/>
+        <v>22</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="31"/>
+        <v>32</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="33"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="34"/>
+        <v>43</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="36"/>
     </row>
     <row r="13" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="34"/>
+        <v>44</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="36"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="34"/>
+        <v>58</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="36"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="36"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="34"/>
+        <v>59</v>
+      </c>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="36"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
       <c r="C17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="36"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="34"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="34"/>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="36"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="39"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I22" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="40"/>
+      <c r="I22" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="42"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="45"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="45"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="45"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="45"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="45"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="45"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/venv/Plebs_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058FA8F3-461A-414C-AA55-C3A644A0A0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390D947E-36D2-E741-AAD6-6179F453F26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
   <si>
     <t>Index</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>API Key</t>
-  </si>
-  <si>
-    <t>f632119c4e0599a3229fec5a9ac83b1c</t>
   </si>
   <si>
     <r>
@@ -143,9 +140,6 @@
     <t>Start date</t>
   </si>
   <si>
-    <t>2020-08-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">All dates must be input in “YYYY-MM-DD” format. Must have a starting date. </t>
   </si>
   <si>
@@ -188,9 +182,6 @@
     <t>TracesType</t>
   </si>
   <si>
-    <t xml:space="preserve">Set to price'or 'yoy'. Price history of assets (including NLQ) will be plotted unchanged ('price) or as year on year change ('yoy'), do not leave blank. </t>
-  </si>
-  <si>
     <t>FontFamily</t>
   </si>
   <si>
@@ -213,9 +204,6 @@
   </si>
   <si>
     <t>Include_ECB</t>
-  </si>
-  <si>
-    <t>Add BOJ balance sheet to NLQ. ‘yes’ to add ECB balance sheet (in USD) to NLQ  series. Leave blank or ‘no’ to not add ECB.</t>
   </si>
   <si>
     <t>Include_BOJ</t>
@@ -294,9 +282,6 @@
     <t>no</t>
   </si>
   <si>
-    <t xml:space="preserve">Main figure using only the 3 data series taken from FRED for NLQ. Weekly frequency all. </t>
-  </si>
-  <si>
     <t>MainFig (DailyResample)</t>
   </si>
   <si>
@@ -342,9 +327,6 @@
   </si>
   <si>
     <t>NLQ Simple chart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fed Net liquidity plotted on a sample chart with one comparison asset. </t>
   </si>
   <si>
     <t>TGA Daily</t>
@@ -668,9 +650,6 @@
     </r>
   </si>
   <si>
-    <t>f6376449c4e0jdgho667ec5a9ac83b1c</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Main figure using only the 3 data series taken from FRED for NLQ. Weekly frequency all. Same as trading view series. </t>
     </r>
@@ -692,13 +671,7 @@
     <t>price</t>
   </si>
   <si>
-    <t>yoy</t>
-  </si>
-  <si>
     <t>linear</t>
-  </si>
-  <si>
-    <t>2019-08-01</t>
   </si>
   <si>
     <r>
@@ -723,13 +696,31 @@
 scaling. Also set your start date
 to be 1 year earlier. </t>
     </r>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set to 'price'or 'yoy'. Price history of assets (including NLQ) will be plotted unchanged ('price') or as year on year change ('yoy'). </t>
+  </si>
+  <si>
+    <t>Add ECB balance sheet to NLQ. ‘yes’ to add ECB balance sheet (in USD) to NLQ  series. Leave blank or ‘no’ to not add ECB.</t>
+  </si>
+  <si>
+    <t>Add BOE balance sheet to NLQ. ‘yes’ to add BOE balance sheet (in USD) to NLQ  series. Leave blank or ‘no’ to not add BOE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fed Net liquidity plotted on a simple chart with one comparison asset. </t>
+  </si>
+  <si>
+    <t>f632119cgdj7769eddkl6545a9ac83b1c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -865,13 +856,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1103,9 +1087,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1196,16 +1180,13 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1791,7 +1772,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:G17"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1842,16 +1823,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="19" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H2" s="18">
         <v>180</v>
@@ -1864,16 +1845,16 @@
       <c r="B3" s="19"/>
       <c r="C3" s="18"/>
       <c r="D3" s="19" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H3" s="18">
         <v>365</v>
@@ -1885,7 +1866,7 @@
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="18"/>
-      <c r="D4" s="20"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -1935,12 +1916,10 @@
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1949,11 +1928,11 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -1963,11 +1942,11 @@
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1977,12 +1956,12 @@
     </row>
     <row r="11" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1991,13 +1970,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2007,11 +1986,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -2021,13 +2000,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -2035,13 +2014,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -2050,121 +2029,119 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="19">
         <v>20</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>9</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B22" s="19"/>
       <c r="C22" s="11" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -2173,13 +2150,11 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>9</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B23" s="19"/>
       <c r="C23" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -2188,13 +2163,11 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>9</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B24" s="19"/>
       <c r="C24" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -2203,13 +2176,11 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>9</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="11" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -2218,7 +2189,7 @@
     </row>
     <row r="26" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2228,11 +2199,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2241,11 +2212,11 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2254,13 +2225,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2269,11 +2240,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="35"/>
+        <v>59</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>9</v>
+      </c>
       <c r="C30" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2282,13 +2255,11 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>58</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B31" s="34"/>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2297,13 +2268,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2312,13 +2283,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -2373,7 +2344,7 @@
   <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2419,22 +2390,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H2" s="18">
         <v>180</v>
@@ -2445,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="19" t="s">
@@ -2469,20 +2440,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H4" s="18">
         <v>730</v>
@@ -2497,16 +2468,16 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H5" s="18">
         <v>1460</v>
@@ -2517,20 +2488,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -2540,1226 +2511,1212 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="21"/>
-      <c r="K7" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
+      <c r="K7" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="21"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
     </row>
     <row r="11" spans="1:33" ht="21" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="21"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="33"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="33"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="19">
         <v>20</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>93</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B18" s="19"/>
       <c r="C18" s="11" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="33"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="20"/>
+        <v>42</v>
+      </c>
+      <c r="B20" s="19"/>
       <c r="C20" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="33"/>
     </row>
     <row r="21" spans="1:33" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>9</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B22" s="19"/>
       <c r="C22" s="11" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="33"/>
     </row>
     <row r="23" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>9</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B23" s="19"/>
       <c r="C23" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="33"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>9</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B24" s="19"/>
       <c r="C24" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="39"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
+      <c r="H24" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="38"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>9</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="11" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="33"/>
     </row>
     <row r="26" spans="1:33" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
+      <c r="AG26" s="33"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B27" s="19"/>
       <c r="C27" s="3" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="34"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="33"/>
+      <c r="AG27" s="33"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>58</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B28" s="19"/>
       <c r="C28" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="33"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="33"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="34"/>
-      <c r="AF29" s="34"/>
-      <c r="AG29" s="34"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="33"/>
+      <c r="AG29" s="33"/>
     </row>
     <row r="30" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="34"/>
-      <c r="AE30" s="34"/>
-      <c r="AF30" s="34"/>
-      <c r="AG30" s="34"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="33"/>
+      <c r="AD30" s="33"/>
+      <c r="AE30" s="33"/>
+      <c r="AF30" s="33"/>
+      <c r="AG30" s="33"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="19"/>
+        <v>61</v>
+      </c>
+      <c r="B31" s="34"/>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="34"/>
-      <c r="AE31" s="34"/>
-      <c r="AF31" s="34"/>
-      <c r="AG31" s="34"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="33"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="34"/>
-      <c r="AG32" s="34"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="33"/>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="33"/>
+      <c r="AG32" s="33"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="34"/>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="34"/>
-      <c r="AG33" s="34"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="33"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="34"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="33"/>
+      <c r="AF34" s="33"/>
+      <c r="AG34" s="33"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="34"/>
-      <c r="AD35" s="34"/>
-      <c r="AE35" s="34"/>
-      <c r="AF35" s="34"/>
-      <c r="AG35" s="34"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="34"/>
-      <c r="AF36" s="34"/>
-      <c r="AG36" s="34"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="33"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
-      <c r="AF38" s="34"/>
-      <c r="AG38" s="34"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="33"/>
+      <c r="AE38" s="33"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="33"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="34"/>
-      <c r="AG39" s="34"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="33"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="34"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="33"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="33"/>
+      <c r="AG40" s="33"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="33"/>
+      <c r="AD41" s="33"/>
+      <c r="AE41" s="33"/>
+      <c r="AF41" s="33"/>
+      <c r="AG41" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -3799,8 +3756,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K7" r:id="rId1" display="https://matplotlib.org/stable" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D8" r:id="rId2" display="https://fred.stlouisfed.org/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C15" r:id="rId3" display="https://matplotlib.org/stable/gallery/color/named_colors.html" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId2" display="https://fred.stlouisfed.org/" xr:uid="{CCC1D4C2-4EE9-1346-A427-2419602298C8}"/>
+    <hyperlink ref="C15" r:id="rId3" display="https://matplotlib.org/stable/gallery/color/named_colors.html" xr:uid="{57DED82D-AA8D-9B4D-8678-E3574EE8B661}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/venv/Plebs_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BED2C2-7FBC-094A-BB75-5D9A9F1577CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BDF23D-AF85-6A46-B4B2-28422FF1FBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
   <si>
     <t>Index</t>
   </si>
@@ -130,12 +130,6 @@
     </r>
   </si>
   <si>
-    <t>SaveFREDData</t>
-  </si>
-  <si>
-    <t>Put in any text to confirm that you want to save data series pulled from FRED to disk in your WD/FRED_Data/</t>
-  </si>
-  <si>
     <t>NLQ Source</t>
   </si>
   <si>
@@ -161,6 +155,9 @@
   </si>
   <si>
     <t>Yscale</t>
+  </si>
+  <si>
+    <t>log</t>
   </si>
   <si>
     <t xml:space="preserve">Set this to either "log"or "linear", to set yscale for the main figure on both left and right axis. </t>
@@ -676,6 +673,9 @@
     <t>Bitcoin</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>linear</t>
   </si>
   <si>
@@ -721,17 +721,28 @@
     <t>f632119cgdj7769eddkl6545a9ac83b1c</t>
   </si>
   <si>
-    <t>yoy</t>
-  </si>
-  <si>
-    <t>2011-01-01</t>
+    <r>
+      <t xml:space="preserve">Put in text to confirm you want to save data series pulled from FRED to disk in your WD/FRED_Data/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- removed, FRED data always saved. </t>
+    </r>
+  </si>
+  <si>
+    <t>2021-06-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -909,6 +920,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1781,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1831,19 +1848,19 @@
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="4">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1852,12 +1869,20 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="4">
-        <v>730</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1871,7 +1896,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="4">
-        <v>1460</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1884,9 +1909,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="4">
-        <v>2920</v>
-      </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -1929,13 +1952,9 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="A9" s="8"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="34" t="s">
-        <v>19</v>
-      </c>
+      <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
@@ -1944,11 +1963,11 @@
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -1958,12 +1977,12 @@
     </row>
     <row r="11" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -1972,13 +1991,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -1988,11 +2007,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="B13" s="11"/>
       <c r="C13" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -2002,13 +2021,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>29</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -2016,13 +2035,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="25" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>32</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -2031,13 +2050,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5">
         <v>50</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -2050,11 +2069,11 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -2067,10 +2086,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>88</v>
@@ -2086,13 +2105,13 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -2105,11 +2124,11 @@
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -2122,12 +2141,12 @@
     </row>
     <row r="21" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -2135,11 +2154,9 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B22" s="5"/>
       <c r="C22" s="25" t="s">
         <v>89</v>
       </c>
@@ -2150,13 +2167,11 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="25" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>47</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -2165,13 +2180,11 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="25" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>49</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -2180,11 +2193,9 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B25" s="5"/>
       <c r="C25" s="25" t="s">
         <v>90</v>
       </c>
@@ -2195,7 +2206,7 @@
     </row>
     <row r="26" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -2205,11 +2216,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -2218,11 +2229,11 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -2231,13 +2242,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -2246,13 +2257,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -2261,13 +2272,11 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -2276,10 +2285,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>91</v>
@@ -2291,13 +2300,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
@@ -2352,7 +2361,7 @@
   <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="D2:G2"/>
+      <selection activeCell="C33" sqref="C33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2398,22 +2407,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="H2" s="4">
         <v>180</v>
@@ -2424,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
@@ -2448,20 +2457,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="H4" s="4">
         <v>730</v>
@@ -2476,16 +2485,16 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="H5" s="4">
         <v>1460</v>
@@ -2496,20 +2505,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -2527,7 +2536,7 @@
       <c r="G7" s="41"/>
       <c r="H7" s="7"/>
       <c r="K7" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L7" s="42"/>
       <c r="M7" s="42"/>
@@ -2592,12 +2601,10 @@
       <c r="AG8" s="42"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="34" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -2630,11 +2637,11 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -2667,12 +2674,12 @@
     </row>
     <row r="11" spans="1:33" ht="21" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -2704,13 +2711,13 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -2743,11 +2750,11 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -2780,13 +2787,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -2817,13 +2824,13 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="25" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>32</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -2855,13 +2862,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5">
         <v>20</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -2893,11 +2900,11 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -2929,7 +2936,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="25" t="s">
@@ -2965,13 +2972,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -3003,11 +3010,11 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -3039,12 +3046,12 @@
     </row>
     <row r="21" spans="1:33" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -3075,7 +3082,7 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="25" t="s">
@@ -3111,11 +3118,11 @@
     </row>
     <row r="23" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -3147,11 +3154,11 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -3187,7 +3194,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="25" t="s">
@@ -3225,7 +3232,7 @@
     </row>
     <row r="26" spans="1:33" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -3260,11 +3267,11 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -3298,11 +3305,11 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -3336,13 +3343,13 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -3376,13 +3383,13 @@
     </row>
     <row r="30" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -3416,11 +3423,11 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -3452,10 +3459,10 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>91</v>
@@ -3490,13 +3497,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/venv/Plebs_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7DBD81-68B1-8D47-AD69-389A0619C589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98CC4C9-383C-2F42-8428-CD17234295D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33540" windowHeight="20400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,19 @@
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Information &amp; Examples" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="107">
   <si>
     <t>Index</t>
   </si>
@@ -480,22 +491,13 @@
     </r>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>RESPPNTNWW</t>
-  </si>
-  <si>
-    <t>2020-06-01</t>
-  </si>
-  <si>
     <t>Bitcoin</t>
   </si>
   <si>
     <t>Fed_BS_Full_Or_QE</t>
   </si>
   <si>
-    <t>QE</t>
+    <t>qe</t>
   </si>
   <si>
     <r>
@@ -531,6 +533,15 @@
   </si>
   <si>
     <t xml:space="preserve">Sets whether to use 'WALCL 'or 'RESPPNTNWW' series from FRED for the fed bal. sheet. Former is total &amp; latter is QE/QT part only. </t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>Use_Smoothed</t>
+  </si>
+  <si>
+    <t>Option to use the MA of NLQ  as the main NLQ trace. Correlation will be calculated using the MA.</t>
   </si>
   <si>
     <r>
@@ -742,7 +753,7 @@
       </rPr>
       <t xml:space="preserve">The Fed bal. sheet has several differing items on it. The main part is the QE component - long time to maturity bonds &gt;10Y as well as mortgage backed securities and similar. This makes up around 90% of the 
 bal. sheet. There are also loans an dthis is important. At times of high financial stress, the Fed makes emergency loans. These loans are not QE and should not be incuded in net liquidity. The QE only part of the bal. sheet is thus a 
-better quantity to use, series 'RESPPNTNWW'from FRED rather than 'WALCL'whcih is the total balance sheet. See my thread on this for more info:
+better quantity to use, series 'RESPPNTNWW' from FRED rather than 'WALCL'whcih is the total balance sheet. See my thread on this for more info:
 </t>
     </r>
     <r>
@@ -758,6 +769,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>fhfd2119c4ghdjsi674gnvb1c</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1288,97 +1302,103 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1959,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2008,21 +2028,19 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" s="5">
         <v>180</v>
@@ -2034,10 +2052,18 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H3" s="5">
         <v>365</v>
       </c>
@@ -2081,25 +2107,27 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="25"/>
       <c r="D8" s="26" t="s">
         <v>18</v>
       </c>
@@ -2113,10 +2141,10 @@
         <v>19</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
@@ -2125,45 +2153,45 @@
         <v>20</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>100</v>
+      <c r="A11" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+        <v>98</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="22" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2171,7 +2199,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>25</v>
@@ -2217,80 +2245,73 @@
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="4">
-        <v>50</v>
-      </c>
-      <c r="C17" s="26" t="s">
+      <c r="B18" s="4">
+        <v>20</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="26" t="s">
-        <v>37</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="15"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="15" t="s">
-        <v>96</v>
-      </c>
+      <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>41</v>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -2303,71 +2324,77 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>46</v>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="C22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="22" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B25" s="21"/>
       <c r="C25" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -2376,11 +2403,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B26" s="21"/>
       <c r="C26" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -2389,160 +2416,174 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="B27" s="21"/>
       <c r="C27" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
+      <c r="C30" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+        <v>61</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="C32" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+        <v>66</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
+  <mergeCells count="33">
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C17:H17"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2557,7 +2598,7 @@
   <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C15" sqref="C15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2719,19 +2760,19 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="38" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="7"/>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="44" t="s">
         <v>104</v>
       </c>
       <c r="L7" s="45"/>
@@ -2761,10 +2802,10 @@
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="26" t="s">
         <v>18</v>
       </c>
@@ -2799,12 +2840,12 @@
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="K9" s="47"/>
@@ -2836,12 +2877,12 @@
         <v>20</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="K10" s="47"/>
@@ -2869,19 +2910,19 @@
       <c r="AG10" s="49"/>
     </row>
     <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="7"/>
       <c r="K11" s="47"/>
       <c r="L11" s="48"/>
@@ -2908,17 +2949,17 @@
       <c r="AG11" s="49"/>
     </row>
     <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="22" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="7"/>
       <c r="K12" s="47"/>
       <c r="L12" s="48"/>
@@ -3064,13 +3105,13 @@
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
       <c r="K16" s="47"/>
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
@@ -3280,17 +3321,17 @@
       <c r="AG21" s="49"/>
     </row>
     <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="22" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="K22" s="47"/>
       <c r="L22" s="48"/>
       <c r="M22" s="48"/>
@@ -3399,10 +3440,10 @@
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="I25" s="36"/>
+      <c r="I25" s="54"/>
       <c r="K25" s="47"/>
       <c r="L25" s="48"/>
       <c r="M25" s="48"/>
@@ -3439,8 +3480,8 @@
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
       <c r="K26" s="47"/>
       <c r="L26" s="48"/>
       <c r="M26" s="48"/>
@@ -3466,16 +3507,16 @@
       <c r="AG26" s="49"/>
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
       <c r="K27" s="47"/>
       <c r="L27" s="48"/>
       <c r="M27" s="48"/>
@@ -3505,15 +3546,15 @@
         <v>59</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
       <c r="K28" s="47"/>
       <c r="L28" s="48"/>
       <c r="M28" s="48"/>
@@ -3543,15 +3584,15 @@
         <v>61</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
       <c r="K29" s="47"/>
       <c r="L29" s="48"/>
       <c r="M29" s="48"/>
@@ -3583,15 +3624,15 @@
       <c r="B30" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
       <c r="K30" s="47"/>
       <c r="L30" s="48"/>
       <c r="M30" s="48"/>
@@ -3623,15 +3664,15 @@
       <c r="B31" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
       <c r="K31" s="47"/>
       <c r="L31" s="48"/>
       <c r="M31" s="48"/>
@@ -3661,13 +3702,13 @@
         <v>68</v>
       </c>
       <c r="B32" s="21"/>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
       <c r="K32" s="47"/>
       <c r="L32" s="48"/>
       <c r="M32" s="48"/>
@@ -3699,13 +3740,13 @@
       <c r="B33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
       <c r="K33" s="47"/>
       <c r="L33" s="48"/>
       <c r="M33" s="48"/>
@@ -3737,13 +3778,13 @@
       <c r="B34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
       <c r="K34" s="47"/>
       <c r="L34" s="48"/>
       <c r="M34" s="48"/>
@@ -3970,6 +4011,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
@@ -3986,24 +4045,6 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/venv/Plebs_Macro/NetLiquidity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimmi\OneDrive\Documents\Documents\Scripts\VenV\Plebs_Macro\NetLiquidity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98CC4C9-383C-2F42-8428-CD17234295D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E7F66-4C48-4024-B95A-C1A4D72F1E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33540" windowHeight="20400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Information &amp; Examples" sheetId="2" r:id="rId2"/>
+    <sheet name="Dropdowns" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="287">
   <si>
     <t>Index</t>
   </si>
@@ -535,13 +536,572 @@
     <t xml:space="preserve">Sets whether to use 'WALCL 'or 'RESPPNTNWW' series from FRED for the fed bal. sheet. Former is total &amp; latter is QE/QT part only. </t>
   </si>
   <si>
-    <t>2021-06-01</t>
-  </si>
-  <si>
     <t>Use_Smoothed</t>
   </si>
   <si>
     <t>Option to use the MA of NLQ  as the main NLQ trace. Correlation will be calculated using the MA.</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>f632119c4e0599a3229fec5a9ac83b1c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding balance sheets of ECB, BOJ, PboC &amp; BoE &amp; Swiss to Fed NLQ makes a decent ‘Global liquidity’ index.  </t>
+  </si>
+  <si>
+    <t>Include_SNB</t>
+  </si>
+  <si>
+    <t>Add Swiss CB balance sheet to NLQ. ‘yes’ to add SNB balance sheet (in USD) to NLQ  series. Leave blank or ‘no’ to not add SNB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can optionally add a moving average atop the NLQ trace. Set period here. Leave blank for no MA. This sets period for above cell too. </t>
+  </si>
+  <si>
+    <t>antiquewhite</t>
+  </si>
+  <si>
+    <t>aqua</t>
+  </si>
+  <si>
+    <t>aquamarine</t>
+  </si>
+  <si>
+    <t>azure</t>
+  </si>
+  <si>
+    <t>beige</t>
+  </si>
+  <si>
+    <t>bisque</t>
+  </si>
+  <si>
+    <t>blanchedalmond</t>
+  </si>
+  <si>
+    <t>blueviolet</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>burlywood</t>
+  </si>
+  <si>
+    <t>cadetblue</t>
+  </si>
+  <si>
+    <t>chartreuse</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>coral</t>
+  </si>
+  <si>
+    <t>cornflowerblue</t>
+  </si>
+  <si>
+    <t>crimson</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>darkblue</t>
+  </si>
+  <si>
+    <t>darkcyan</t>
+  </si>
+  <si>
+    <t>darkgoldenrod</t>
+  </si>
+  <si>
+    <t>darkgray</t>
+  </si>
+  <si>
+    <t>darkgreen</t>
+  </si>
+  <si>
+    <t>darkgrey</t>
+  </si>
+  <si>
+    <t>darkmagenta</t>
+  </si>
+  <si>
+    <t>darkolivegreen</t>
+  </si>
+  <si>
+    <t>darkorchid</t>
+  </si>
+  <si>
+    <t>darkred</t>
+  </si>
+  <si>
+    <t>darksalmon</t>
+  </si>
+  <si>
+    <t>darkseagreen</t>
+  </si>
+  <si>
+    <t>darkslategray</t>
+  </si>
+  <si>
+    <t>darkslategrey</t>
+  </si>
+  <si>
+    <t>darkturquoise</t>
+  </si>
+  <si>
+    <t>darkviolet</t>
+  </si>
+  <si>
+    <t>deeppink</t>
+  </si>
+  <si>
+    <t>deepskyblue</t>
+  </si>
+  <si>
+    <t>dimgray</t>
+  </si>
+  <si>
+    <t>dodgerblue</t>
+  </si>
+  <si>
+    <t>firebrick</t>
+  </si>
+  <si>
+    <t>floralwhite</t>
+  </si>
+  <si>
+    <t>forestgreen</t>
+  </si>
+  <si>
+    <t>fuchsia</t>
+  </si>
+  <si>
+    <t>gainsboro</t>
+  </si>
+  <si>
+    <t>ghostwhite</t>
+  </si>
+  <si>
+    <t>goldenrod</t>
+  </si>
+  <si>
+    <t>greenyellow</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>honeydew</t>
+  </si>
+  <si>
+    <t>hotpink</t>
+  </si>
+  <si>
+    <t>indianred</t>
+  </si>
+  <si>
+    <t>indigo</t>
+  </si>
+  <si>
+    <t>ivory</t>
+  </si>
+  <si>
+    <t>khaki</t>
+  </si>
+  <si>
+    <t>lavender</t>
+  </si>
+  <si>
+    <t>lavenderblush</t>
+  </si>
+  <si>
+    <t>lemonchiffon</t>
+  </si>
+  <si>
+    <t>lightblue</t>
+  </si>
+  <si>
+    <t>lightcoral</t>
+  </si>
+  <si>
+    <t>lightcyan</t>
+  </si>
+  <si>
+    <t>lightgoldenrodyellow</t>
+  </si>
+  <si>
+    <t>lightgray</t>
+  </si>
+  <si>
+    <t>lightgreen</t>
+  </si>
+  <si>
+    <t>lightgrey</t>
+  </si>
+  <si>
+    <t>lightsalmon</t>
+  </si>
+  <si>
+    <t>lightseagreen</t>
+  </si>
+  <si>
+    <t>lightskyblue</t>
+  </si>
+  <si>
+    <t>lightslategray</t>
+  </si>
+  <si>
+    <t>lightslategrey</t>
+  </si>
+  <si>
+    <t>lightsteelblue</t>
+  </si>
+  <si>
+    <t>lightyellow</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>linen</t>
+  </si>
+  <si>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>maroon</t>
+  </si>
+  <si>
+    <t>mediumaquamarine</t>
+  </si>
+  <si>
+    <t>mediumblue</t>
+  </si>
+  <si>
+    <t>mediumorchid</t>
+  </si>
+  <si>
+    <t>mediumpurple</t>
+  </si>
+  <si>
+    <t>mediumseagreen</t>
+  </si>
+  <si>
+    <t>mediumspringgreen</t>
+  </si>
+  <si>
+    <t>mediumturquoise</t>
+  </si>
+  <si>
+    <t>mediumvioletred</t>
+  </si>
+  <si>
+    <t>midnightblue</t>
+  </si>
+  <si>
+    <t>mintcream</t>
+  </si>
+  <si>
+    <t>mistyrose</t>
+  </si>
+  <si>
+    <t>moccasin</t>
+  </si>
+  <si>
+    <t>navy</t>
+  </si>
+  <si>
+    <t>oldlace</t>
+  </si>
+  <si>
+    <t>olive</t>
+  </si>
+  <si>
+    <t>olivedrab</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>orangered</t>
+  </si>
+  <si>
+    <t>orchid</t>
+  </si>
+  <si>
+    <t>palegoldenrod</t>
+  </si>
+  <si>
+    <t>palegreen</t>
+  </si>
+  <si>
+    <t>paleturquoise</t>
+  </si>
+  <si>
+    <t>papayawhip</t>
+  </si>
+  <si>
+    <t>peachpuff</t>
+  </si>
+  <si>
+    <t>peru</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>plum</t>
+  </si>
+  <si>
+    <t>powderblue</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>rebeccapurple</t>
+  </si>
+  <si>
+    <t>rosybrown</t>
+  </si>
+  <si>
+    <t>royalblue</t>
+  </si>
+  <si>
+    <t>salmon</t>
+  </si>
+  <si>
+    <t>sandybrown</t>
+  </si>
+  <si>
+    <t>seagreen</t>
+  </si>
+  <si>
+    <t>seashell</t>
+  </si>
+  <si>
+    <t>sienna</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>skyblue</t>
+  </si>
+  <si>
+    <t>slateblue</t>
+  </si>
+  <si>
+    <t>slategray</t>
+  </si>
+  <si>
+    <t>slategrey</t>
+  </si>
+  <si>
+    <t>springgreen</t>
+  </si>
+  <si>
+    <t>steelblue</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>teal</t>
+  </si>
+  <si>
+    <t>thistle</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>turquoise</t>
+  </si>
+  <si>
+    <t>violet</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>whitesmoke</t>
+  </si>
+  <si>
+    <t>yellowgreen</t>
+  </si>
+  <si>
+    <t>aliceblue</t>
+  </si>
+  <si>
+    <t>cornsilk</t>
+  </si>
+  <si>
+    <t>darkkhaki</t>
+  </si>
+  <si>
+    <t>darkslateblue</t>
+  </si>
+  <si>
+    <t>dimgrey</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>lawngreen</t>
+  </si>
+  <si>
+    <t>lightpink</t>
+  </si>
+  <si>
+    <t>limegreen</t>
+  </si>
+  <si>
+    <t>mediumslateblue</t>
+  </si>
+  <si>
+    <t>navajowhite</t>
+  </si>
+  <si>
+    <t>palevioletred</t>
+  </si>
+  <si>
+    <t>saddlebrown</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>GNload</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>fred</t>
+  </si>
+  <si>
+    <t>coingecko</t>
+  </si>
+  <si>
+    <t>yahoo</t>
+  </si>
+  <si>
+    <t>iex</t>
+  </si>
+  <si>
+    <t>iex-tops</t>
+  </si>
+  <si>
+    <t>iex-last</t>
+  </si>
+  <si>
+    <t>bankofcanada</t>
+  </si>
+  <si>
+    <t>stooq</t>
+  </si>
+  <si>
+    <t>iex-book</t>
+  </si>
+  <si>
+    <t>enigma</t>
+  </si>
+  <si>
+    <t>famafrench</t>
+  </si>
+  <si>
+    <t>oecd</t>
+  </si>
+  <si>
+    <t>eurostat</t>
+  </si>
+  <si>
+    <t>nasdaq</t>
+  </si>
+  <si>
+    <t>quandl</t>
+  </si>
+  <si>
+    <t>moex</t>
+  </si>
+  <si>
+    <t>tiingo</t>
+  </si>
+  <si>
+    <t>yahoo-actions</t>
+  </si>
+  <si>
+    <t>yahoo-dividends</t>
+  </si>
+  <si>
+    <t>av-forex</t>
+  </si>
+  <si>
+    <t>av-forex-daily</t>
+  </si>
+  <si>
+    <t>av-daily</t>
+  </si>
+  <si>
+    <t>av-daily-adjusted</t>
+  </si>
+  <si>
+    <t>av-weekly</t>
+  </si>
+  <si>
+    <t>av-weekly-adjusted</t>
+  </si>
+  <si>
+    <t>av-monthly</t>
+  </si>
+  <si>
+    <t>av-monthly-adjusted</t>
+  </si>
+  <si>
+    <t>av-intraday</t>
+  </si>
+  <si>
+    <t>econdb</t>
+  </si>
+  <si>
+    <t>naver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether or not to save the series pulled from FRED to disk in NetLiquidity/FRED_Data folder. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All dates must be input in “YYYY-MM-DD” format. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">You must input a starting date. </t>
+    </r>
   </si>
   <si>
     <r>
@@ -564,6 +1124,66 @@
       </rPr>
       <t xml:space="preserve">
       (Input of bad parameters will result in script not running to completion &amp; you’ll probably get a pretty self-explanatory error message.)
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yellow cells</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> are dropdown menus.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Grey cells</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> are freeform input, sometime with restriction on the type of input e.g must be a date.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 - You can put in anything for the </t>
     </r>
     <r>
@@ -767,18 +1387,15 @@
       <t>https://twitter.com/Tech_Pleb/status/1639258819124510721?s=20</t>
     </r>
   </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>fhfd2119c4ghdjsi674gnvb1c</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1006,8 +1623,36 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1114,6 +1759,30 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFF8CBAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -1239,7 +1908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1305,35 +1974,26 @@
     <xf numFmtId="0" fontId="24" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1342,20 +2002,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1394,11 +2069,32 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1979,26 +2675,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="30.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2024,328 +2720,344 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>64</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="57" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="57" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="5">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>64</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="57" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="5">
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="5">
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26" t="s">
+      <c r="B8" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="B9" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:10" ht="21.75" customHeight="1">
+      <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="B13" s="64">
+        <v>44562</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="4">
         <v>20</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="C18" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="14"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="57" t="s">
+        <v>71</v>
+      </c>
       <c r="C22" s="18" t="s">
         <v>45</v>
       </c>
@@ -2358,238 +3070,324 @@
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A23" s="59" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:11" ht="21" customHeight="1">
+      <c r="A24" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="26" t="s">
+      <c r="B25" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="26" t="s">
+      <c r="B26" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="26" t="s">
+      <c r="B27" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-    </row>
-    <row r="29" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A30" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="38" t="s">
+      <c r="B31" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="30" t="s">
+      <c r="B32" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B33" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C33" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B34" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C34" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="40" t="s">
+      <c r="B35" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C36" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C37" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C25:G25"/>
+  <mergeCells count="34">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C11:J11"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{E5B6A146-496A-4008-984A-005A6D851586}">
+      <formula1>367</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{174B3634-B031-45BC-B96F-47D5C0EDD510}">
+      <formula1>B13</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BABACAEC-633C-4BC1-98CB-5D178F66594A}">
+          <x14:formula1>
+            <xm:f>Dropdowns!$D$1:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B25:B29 B9 B22 B31:B37</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2CCCC24C-6AD7-4315-8638-4A53DBDC2BFD}">
+          <x14:formula1>
+            <xm:f>Dropdowns!$E$1:$E$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EBECAD50-8C45-49DE-942E-9AC0D3079CB5}">
+          <x14:formula1>
+            <xm:f>Dropdowns!$F$2:$F$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD09B134-B4CA-4AC7-AE5D-CE1021EC79C3}">
+          <x14:formula1>
+            <xm:f>Dropdowns!$J$6:$J$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{556F2965-C3EB-4586-9E0F-F4B29EE05378}">
+          <x14:formula1>
+            <xm:f>Dropdowns!$I$3:$I$150</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{885B0AE9-EF10-48A6-9F7E-D5F7F59BCF71}">
+          <x14:formula1>
+            <xm:f>Dropdowns!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{2BE53967-CA65-4FE8-8025-AB7CEEAE57E2}">
+          <x14:formula1>
+            <xm:f>Dropdowns!$D$1:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B17</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2598,22 +3396,22 @@
   <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:F15"/>
+      <selection activeCell="C11" sqref="C11:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="26.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +3437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2665,7 +3463,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2689,7 +3487,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2713,7 +3511,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2737,7 +3535,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2759,1276 +3557,1258 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:33" ht="27.75" customHeight="1">
+      <c r="A7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="43" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="7"/>
-      <c r="K7" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="46"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K7" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="48"/>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="7"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="49"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="51"/>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="49"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="51"/>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="49"/>
-    </row>
-    <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+      <c r="K10" s="49"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="51"/>
+    </row>
+    <row r="11" spans="1:33" ht="18.75">
       <c r="A11" s="22" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="7"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="49"/>
-    </row>
-    <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="51"/>
+    </row>
+    <row r="12" spans="1:33" ht="21">
+      <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="7"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="49"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="51"/>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="49"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="51"/>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="49"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="51"/>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="49"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="51"/>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="49"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="51"/>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="49"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="51"/>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="49"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="51"/>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="49"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="51"/>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="49"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="51"/>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="49"/>
-    </row>
-    <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="51"/>
+    </row>
+    <row r="22" spans="1:33" ht="30" customHeight="1">
+      <c r="A22" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="30" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="49"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="51"/>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="49"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="51"/>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="49"/>
-    </row>
-    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="51"/>
+    </row>
+    <row r="25" spans="1:33" ht="15.75" customHeight="1">
       <c r="A25" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="54" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I25" s="54"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="49"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="I25" s="41"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="51"/>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="49"/>
-    </row>
-    <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55" t="s">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="51"/>
+    </row>
+    <row r="27" spans="1:33" ht="26.25" customHeight="1">
+      <c r="A27" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="48"/>
-      <c r="AG27" s="49"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="51"/>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="49"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="51"/>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="48"/>
-      <c r="AD29" s="48"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="48"/>
-      <c r="AG29" s="49"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="51"/>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="48"/>
-      <c r="AD30" s="48"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="48"/>
-      <c r="AG30" s="49"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="51"/>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="49"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="51"/>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="21"/>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="49"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="51"/>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="48"/>
-      <c r="AD33" s="48"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
-      <c r="AG33" s="49"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="51"/>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="48"/>
-      <c r="AG34" s="49"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="47"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="48"/>
-      <c r="AD35" s="48"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="48"/>
-      <c r="AG35" s="49"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="47"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="48"/>
-      <c r="AA36" s="48"/>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="48"/>
-      <c r="AD36" s="48"/>
-      <c r="AE36" s="48"/>
-      <c r="AF36" s="48"/>
-      <c r="AG36" s="49"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="47"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="48"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="48"/>
-      <c r="AG37" s="49"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="47"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="48"/>
-      <c r="Z38" s="48"/>
-      <c r="AA38" s="48"/>
-      <c r="AB38" s="48"/>
-      <c r="AC38" s="48"/>
-      <c r="AD38" s="48"/>
-      <c r="AE38" s="48"/>
-      <c r="AF38" s="48"/>
-      <c r="AG38" s="49"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="47"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
-      <c r="Y39" s="48"/>
-      <c r="Z39" s="48"/>
-      <c r="AA39" s="48"/>
-      <c r="AB39" s="48"/>
-      <c r="AC39" s="48"/>
-      <c r="AD39" s="48"/>
-      <c r="AE39" s="48"/>
-      <c r="AF39" s="48"/>
-      <c r="AG39" s="49"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="47"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="48"/>
-      <c r="Z40" s="48"/>
-      <c r="AA40" s="48"/>
-      <c r="AB40" s="48"/>
-      <c r="AC40" s="48"/>
-      <c r="AD40" s="48"/>
-      <c r="AE40" s="48"/>
-      <c r="AF40" s="48"/>
-      <c r="AG40" s="49"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="47"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="48"/>
-      <c r="X41" s="48"/>
-      <c r="Y41" s="48"/>
-      <c r="Z41" s="48"/>
-      <c r="AA41" s="48"/>
-      <c r="AB41" s="48"/>
-      <c r="AC41" s="48"/>
-      <c r="AD41" s="48"/>
-      <c r="AE41" s="48"/>
-      <c r="AF41" s="48"/>
-      <c r="AG41" s="49"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="50"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="51"/>
-      <c r="U42" s="51"/>
-      <c r="V42" s="51"/>
-      <c r="W42" s="51"/>
-      <c r="X42" s="51"/>
-      <c r="Y42" s="51"/>
-      <c r="Z42" s="51"/>
-      <c r="AA42" s="51"/>
-      <c r="AB42" s="51"/>
-      <c r="AC42" s="51"/>
-      <c r="AD42" s="51"/>
-      <c r="AE42" s="51"/>
-      <c r="AF42" s="51"/>
-      <c r="AG42" s="52"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="51"/>
+    </row>
+    <row r="35" spans="1:33">
+      <c r="K35" s="49"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="51"/>
+    </row>
+    <row r="36" spans="1:33">
+      <c r="K36" s="49"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="51"/>
+    </row>
+    <row r="37" spans="1:33">
+      <c r="K37" s="49"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="50"/>
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="51"/>
+    </row>
+    <row r="38" spans="1:33">
+      <c r="K38" s="49"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="51"/>
+    </row>
+    <row r="39" spans="1:33">
+      <c r="K39" s="49"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="51"/>
+    </row>
+    <row r="40" spans="1:33">
+      <c r="K40" s="49"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="51"/>
+    </row>
+    <row r="41" spans="1:33">
+      <c r="K41" s="49"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="50"/>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="51"/>
+    </row>
+    <row r="42" spans="1:33">
+      <c r="K42" s="52"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="53"/>
+      <c r="AG42" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
@@ -4045,6 +4825,24 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -4057,4 +4855,896 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C357E8A7-75F5-460C-AD3A-919BE0905114}">
+  <dimension ref="D2:J150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10">
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+    </row>
+    <row r="3" spans="4:10">
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10">
+      <c r="I4" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10">
+      <c r="I5" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10">
+      <c r="I6" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10">
+      <c r="I7" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10">
+      <c r="I8" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10">
+      <c r="I9" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="I10" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="I11" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10">
+      <c r="I12" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10">
+      <c r="I13" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10">
+      <c r="I14" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10">
+      <c r="I15" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="62" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10">
+      <c r="I16" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="62" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10">
+      <c r="I17" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="62" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10">
+      <c r="I18" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" s="62" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10">
+      <c r="I19" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="62" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10">
+      <c r="I20" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" s="62" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10">
+      <c r="I21" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="62" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10">
+      <c r="I22" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="62" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10">
+      <c r="I23" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="62" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10">
+      <c r="I24" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" s="62" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10">
+      <c r="I25" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="62" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="9:10">
+      <c r="I26" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="62" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="9:10">
+      <c r="I27" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" s="62" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="9:10">
+      <c r="I28" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" s="62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="9:10">
+      <c r="I29" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="62" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="9:10">
+      <c r="I30" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="62" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="9:10">
+      <c r="I31" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" s="62" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="9:10">
+      <c r="I32" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" s="62" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10">
+      <c r="I33" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="J33" s="62" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10">
+      <c r="I34" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" s="62" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10">
+      <c r="I35" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="62" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10">
+      <c r="I36" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10">
+      <c r="I37" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="J37" s="62" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10">
+      <c r="I38" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38" s="62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10">
+      <c r="I39" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="62" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10">
+      <c r="I40" s="62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10">
+      <c r="I41" s="62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10">
+      <c r="I42" s="62" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10">
+      <c r="I43" s="62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="9:10">
+      <c r="I44" s="62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="9:10">
+      <c r="I45" s="62" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="9:10">
+      <c r="I46" s="62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="9:10">
+      <c r="I47" s="62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="9:10">
+      <c r="I48" s="62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" s="62" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9">
+      <c r="I50" s="62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9">
+      <c r="I51" s="62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" s="62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" s="62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" s="62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9">
+      <c r="I55" s="62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9">
+      <c r="I56" s="62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" s="62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9">
+      <c r="I58" s="62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9">
+      <c r="I59" s="62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" s="62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9">
+      <c r="I61" s="62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" s="62" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9">
+      <c r="I63" s="62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" s="62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65" s="62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66" s="62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9">
+      <c r="I67" s="62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9">
+      <c r="I68" s="62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9">
+      <c r="I69" s="62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" s="62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9">
+      <c r="I71" s="62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9">
+      <c r="I72" s="62" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9">
+      <c r="I73" s="62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9">
+      <c r="I74" s="62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9">
+      <c r="I75" s="62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9">
+      <c r="I76" s="62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9">
+      <c r="I77" s="62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9">
+      <c r="I78" s="62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9">
+      <c r="I79" s="62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9">
+      <c r="I80" s="62" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9">
+      <c r="I81" s="62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9">
+      <c r="I82" s="62" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9">
+      <c r="I83" s="62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9">
+      <c r="I84" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9">
+      <c r="I85" s="62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9">
+      <c r="I86" s="62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9">
+      <c r="I87" s="62" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9">
+      <c r="I88" s="62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9">
+      <c r="I89" s="62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9">
+      <c r="I90" s="62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9">
+      <c r="I91" s="62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="9:9">
+      <c r="I92" s="62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="9:9">
+      <c r="I93" s="62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="9:9">
+      <c r="I94" s="62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9">
+      <c r="I95" s="62" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9">
+      <c r="I96" s="62" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9">
+      <c r="I97" s="62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9">
+      <c r="I98" s="62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9">
+      <c r="I99" s="62" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9">
+      <c r="I100" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="9:9">
+      <c r="I101" s="62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" spans="9:9">
+      <c r="I102" s="62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="9:9">
+      <c r="I103" s="62" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="9:9">
+      <c r="I104" s="62" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="9:9">
+      <c r="I105" s="62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="9:9">
+      <c r="I106" s="62" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="9:9">
+      <c r="I107" s="62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="9:9">
+      <c r="I108" s="62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="9:9">
+      <c r="I109" s="62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="9:9">
+      <c r="I110" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="9:9">
+      <c r="I111" s="62" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="112" spans="9:9">
+      <c r="I112" s="62" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" spans="9:9">
+      <c r="I113" s="62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" spans="9:9">
+      <c r="I114" s="62" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="115" spans="9:9">
+      <c r="I115" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="9:9">
+      <c r="I116" s="62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="9:9">
+      <c r="I117" s="62" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="9:9">
+      <c r="I118" s="62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="119" spans="9:9">
+      <c r="I119" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="120" spans="9:9">
+      <c r="I120" s="62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="121" spans="9:9">
+      <c r="I121" s="62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="122" spans="9:9">
+      <c r="I122" s="62" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="123" spans="9:9">
+      <c r="I123" s="62" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" spans="9:9">
+      <c r="I124" s="62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="9:9">
+      <c r="I125" s="62" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="126" spans="9:9">
+      <c r="I126" s="62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="9:9">
+      <c r="I127" s="62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="128" spans="9:9">
+      <c r="I128" s="62" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="129" spans="9:9">
+      <c r="I129" s="62" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="130" spans="9:9">
+      <c r="I130" s="62" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="131" spans="9:9">
+      <c r="I131" s="62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="9:9">
+      <c r="I132" s="62" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="133" spans="9:9">
+      <c r="I133" s="62" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="134" spans="9:9">
+      <c r="I134" s="62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="135" spans="9:9">
+      <c r="I135" s="62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="136" spans="9:9">
+      <c r="I136" s="62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="9:9">
+      <c r="I137" s="62" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="138" spans="9:9">
+      <c r="I138" s="62" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="139" spans="9:9">
+      <c r="I139" s="62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="9:9">
+      <c r="I140" s="62" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="141" spans="9:9">
+      <c r="I141" s="62" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="142" spans="9:9">
+      <c r="I142" s="62" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="143" spans="9:9">
+      <c r="I143" s="62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="144" spans="9:9">
+      <c r="I144" s="62" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="145" spans="9:9">
+      <c r="I145" s="62" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="146" spans="9:9">
+      <c r="I146" s="62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="147" spans="9:9">
+      <c r="I147" s="62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="148" spans="9:9">
+      <c r="I148" s="62" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="149" spans="9:9">
+      <c r="I149" s="62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="150" spans="9:9">
+      <c r="I150" s="62" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimmi\OneDrive\Documents\Documents\Scripts\VenV\Plebs_Macro\NetLiquidity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/TempVenv/Plebs_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E7F66-4C48-4024-B95A-C1A4D72F1E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8246A8C-5C6B-A04E-9F18-70D99A30A8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="291">
   <si>
     <t>Index</t>
   </si>
@@ -1387,15 +1387,27 @@
       <t>https://twitter.com/Tech_Pleb/status/1639258819124510721?s=20</t>
     </r>
   </si>
+  <si>
+    <t>FED remittances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fed payments to TGA or TGA payments to Fed per week. FRED series RESPPLLOPNWW. Chart individually or not. </t>
+  </si>
+  <si>
+    <t>Include_Remit</t>
+  </si>
+  <si>
+    <t>Fed payments to TGA or TGA payments to Fed per week. FRED series RESPPLLOPNWW. Add to NLQ series or not.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1651,8 +1663,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1785,6 +1804,12 @@
         <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1908,7 +1933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1974,26 +1999,62 @@
     <xf numFmtId="0" fontId="24" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2002,99 +2063,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2675,26 +2711,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:H17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" customHeight="1">
+    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2720,342 +2756,338 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>64</v>
+      <c r="B2" s="4"/>
+      <c r="C2" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="5">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>64</v>
+      <c r="B3" s="4"/>
+      <c r="C3" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="5">
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="63"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="57"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="57"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="5">
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="63"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="57"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="57"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="63"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="57"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="57"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1">
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A12" s="34" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+    </row>
+    <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="23" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="64">
-        <v>44562</v>
-      </c>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="31">
+        <v>44197</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="4">
         <v>20</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="14"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="24" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="18" t="s">
@@ -3070,262 +3102,294 @@
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A23" s="59" t="s">
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" ht="21" customHeight="1">
-      <c r="A24" s="29" t="s">
+    <row r="24" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="23" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="58" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B26" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C26" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="58" t="s">
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B27" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C27" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="58" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B28" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C28" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="58" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B29" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C29" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="58" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B30" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C30" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A30" s="28" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="20" t="s">
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B32" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C32" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="20" t="s">
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B33" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C33" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="20" t="s">
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B34" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C34" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="20" t="s">
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B35" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C35" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="20" t="s">
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B36" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C36" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="20" t="s">
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B37" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C37" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="20" t="s">
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B38" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C38" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
+  <mergeCells count="36">
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C17:H17"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{E5B6A146-496A-4008-984A-005A6D851586}">
@@ -3347,7 +3411,7 @@
           <x14:formula1>
             <xm:f>Dropdowns!$D$1:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B25:B29 B9 B22 B31:B37</xm:sqref>
+          <xm:sqref>B25:B30 B9 B22 B32:B39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2CCCC24C-6AD7-4315-8638-4A53DBDC2BFD}">
           <x14:formula1>
@@ -3399,19 +3463,19 @@
       <selection activeCell="C11" sqref="C11:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="26.25" customHeight="1">
+    <row r="1" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3437,7 +3501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3463,7 +3527,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3487,7 +3551,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3511,7 +3575,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3535,7 +3599,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3557,1258 +3621,1276 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="45" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="7"/>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="48"/>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="55"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="7"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="51"/>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="K8" s="56"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="58"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="51"/>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="58"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="51"/>
-    </row>
-    <row r="11" spans="1:33" ht="18.75">
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="58"/>
+    </row>
+    <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="7"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="51"/>
-    </row>
-    <row r="12" spans="1:33" ht="21">
-      <c r="A12" s="34" t="s">
+      <c r="K11" s="56"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="58"/>
+    </row>
+    <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="23" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="7"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="51"/>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="K12" s="56"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="58"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="51"/>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="58"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="51"/>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="58"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="51"/>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="58"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="51"/>
-    </row>
-    <row r="17" spans="1:33">
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="58"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="51"/>
-    </row>
-    <row r="18" spans="1:33">
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="58"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="51"/>
-    </row>
-    <row r="19" spans="1:33">
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="58"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="51"/>
-    </row>
-    <row r="20" spans="1:33">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="58"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="51"/>
-    </row>
-    <row r="21" spans="1:33">
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="58"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="51"/>
-    </row>
-    <row r="22" spans="1:33" ht="30" customHeight="1">
-      <c r="A22" s="29" t="s">
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="58"/>
+    </row>
+    <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="23" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="51"/>
-    </row>
-    <row r="23" spans="1:33">
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
+      <c r="AG22" s="58"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="51"/>
-    </row>
-    <row r="24" spans="1:33">
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="57"/>
+      <c r="AG23" s="58"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="51"/>
-    </row>
-    <row r="25" spans="1:33" ht="15.75" customHeight="1">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="58"/>
+    </row>
+    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="41" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="51"/>
-    </row>
-    <row r="26" spans="1:33">
+      <c r="I25" s="63"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="57"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="58"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="51"/>
-    </row>
-    <row r="27" spans="1:33" ht="26.25" customHeight="1">
-      <c r="A27" s="42" t="s">
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="58"/>
+    </row>
+    <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="51"/>
-    </row>
-    <row r="28" spans="1:33">
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="58"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="51"/>
-    </row>
-    <row r="29" spans="1:33">
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="58"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="51"/>
-    </row>
-    <row r="30" spans="1:33">
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="57"/>
+      <c r="AC29" s="57"/>
+      <c r="AD29" s="57"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="58"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="51"/>
-    </row>
-    <row r="31" spans="1:33">
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="57"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="58"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="51"/>
-    </row>
-    <row r="32" spans="1:33">
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="57"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="58"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="21"/>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="50"/>
-      <c r="AG32" s="51"/>
-    </row>
-    <row r="33" spans="1:33">
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="57"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="57"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="58"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="51"/>
-    </row>
-    <row r="34" spans="1:33">
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57"/>
+      <c r="AB33" s="57"/>
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="57"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="57"/>
+      <c r="AG33" s="58"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="50"/>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="51"/>
-    </row>
-    <row r="35" spans="1:33">
-      <c r="K35" s="49"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="50"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="51"/>
-    </row>
-    <row r="36" spans="1:33">
-      <c r="K36" s="49"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="50"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="50"/>
-      <c r="AE36" s="50"/>
-      <c r="AF36" s="50"/>
-      <c r="AG36" s="51"/>
-    </row>
-    <row r="37" spans="1:33">
-      <c r="K37" s="49"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="50"/>
-      <c r="AE37" s="50"/>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="51"/>
-    </row>
-    <row r="38" spans="1:33">
-      <c r="K38" s="49"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="50"/>
-      <c r="AC38" s="50"/>
-      <c r="AD38" s="50"/>
-      <c r="AE38" s="50"/>
-      <c r="AF38" s="50"/>
-      <c r="AG38" s="51"/>
-    </row>
-    <row r="39" spans="1:33">
-      <c r="K39" s="49"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="51"/>
-    </row>
-    <row r="40" spans="1:33">
-      <c r="K40" s="49"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-      <c r="AA40" s="50"/>
-      <c r="AB40" s="50"/>
-      <c r="AC40" s="50"/>
-      <c r="AD40" s="50"/>
-      <c r="AE40" s="50"/>
-      <c r="AF40" s="50"/>
-      <c r="AG40" s="51"/>
-    </row>
-    <row r="41" spans="1:33">
-      <c r="K41" s="49"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="51"/>
-    </row>
-    <row r="42" spans="1:33">
-      <c r="K42" s="52"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="53"/>
-      <c r="AD42" s="53"/>
-      <c r="AE42" s="53"/>
-      <c r="AF42" s="53"/>
-      <c r="AG42" s="54"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="57"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="58"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K35" s="56"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="57"/>
+      <c r="AA35" s="57"/>
+      <c r="AB35" s="57"/>
+      <c r="AC35" s="57"/>
+      <c r="AD35" s="57"/>
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="57"/>
+      <c r="AG35" s="58"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K36" s="56"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="57"/>
+      <c r="AC36" s="57"/>
+      <c r="AD36" s="57"/>
+      <c r="AE36" s="57"/>
+      <c r="AF36" s="57"/>
+      <c r="AG36" s="58"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K37" s="56"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="57"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="57"/>
+      <c r="AE37" s="57"/>
+      <c r="AF37" s="57"/>
+      <c r="AG37" s="58"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K38" s="56"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="57"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="57"/>
+      <c r="AA38" s="57"/>
+      <c r="AB38" s="57"/>
+      <c r="AC38" s="57"/>
+      <c r="AD38" s="57"/>
+      <c r="AE38" s="57"/>
+      <c r="AF38" s="57"/>
+      <c r="AG38" s="58"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K39" s="56"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="57"/>
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="57"/>
+      <c r="AA39" s="57"/>
+      <c r="AB39" s="57"/>
+      <c r="AC39" s="57"/>
+      <c r="AD39" s="57"/>
+      <c r="AE39" s="57"/>
+      <c r="AF39" s="57"/>
+      <c r="AG39" s="58"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K40" s="56"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="57"/>
+      <c r="Y40" s="57"/>
+      <c r="Z40" s="57"/>
+      <c r="AA40" s="57"/>
+      <c r="AB40" s="57"/>
+      <c r="AC40" s="57"/>
+      <c r="AD40" s="57"/>
+      <c r="AE40" s="57"/>
+      <c r="AF40" s="57"/>
+      <c r="AG40" s="58"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K41" s="56"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="57"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="57"/>
+      <c r="V41" s="57"/>
+      <c r="W41" s="57"/>
+      <c r="X41" s="57"/>
+      <c r="Y41" s="57"/>
+      <c r="Z41" s="57"/>
+      <c r="AA41" s="57"/>
+      <c r="AB41" s="57"/>
+      <c r="AC41" s="57"/>
+      <c r="AD41" s="57"/>
+      <c r="AE41" s="57"/>
+      <c r="AF41" s="57"/>
+      <c r="AG41" s="58"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="K42" s="59"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="60"/>
+      <c r="AE42" s="60"/>
+      <c r="AF42" s="60"/>
+      <c r="AG42" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
@@ -4825,24 +4907,6 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -4865,13 +4929,13 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10">
+    <row r="2" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>64</v>
       </c>
@@ -4881,10 +4945,10 @@
       <c r="F2" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="4:10">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>71</v>
       </c>
@@ -4894,853 +4958,853 @@
       <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="28" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="4:10">
-      <c r="I4" s="62" t="s">
+    <row r="4" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I4" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="28" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="4:10">
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I5" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="4:10">
-      <c r="I6" s="62" t="s">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I6" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="28" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="4:10">
-      <c r="I7" s="62" t="s">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I7" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="4:10">
-      <c r="I8" s="62" t="s">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I8" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="4:10">
-      <c r="I9" s="62" t="s">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="28" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="4:10">
-      <c r="I10" s="62" t="s">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I10" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="29" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="4:10">
-      <c r="I11" s="62" t="s">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I11" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="29" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="4:10">
-      <c r="I12" s="62" t="s">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I12" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="29" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="4:10">
-      <c r="I13" s="62" t="s">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I13" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="29" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="4:10">
-      <c r="I14" s="62" t="s">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I14" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="29" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="4:10">
-      <c r="I15" s="62" t="s">
+    <row r="15" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I15" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="29" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="4:10">
-      <c r="I16" s="62" t="s">
+    <row r="16" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I16" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="62" t="s">
+      <c r="J16" s="29" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="9:10">
-      <c r="I17" s="62" t="s">
+    <row r="17" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I17" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="62" t="s">
+      <c r="J17" s="29" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="9:10">
-      <c r="I18" s="62" t="s">
+    <row r="18" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I18" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J18" s="62" t="s">
+      <c r="J18" s="29" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="9:10">
-      <c r="I19" s="62" t="s">
+    <row r="19" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I19" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="J19" s="62" t="s">
+      <c r="J19" s="29" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="9:10">
-      <c r="I20" s="62" t="s">
+    <row r="20" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I20" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="62" t="s">
+      <c r="J20" s="29" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="9:10">
-      <c r="I21" s="62" t="s">
+    <row r="21" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I21" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="J21" s="62" t="s">
+      <c r="J21" s="29" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="9:10">
-      <c r="I22" s="62" t="s">
+    <row r="22" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I22" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="29" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="9:10">
-      <c r="I23" s="62" t="s">
+    <row r="23" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I23" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="J23" s="62" t="s">
+      <c r="J23" s="29" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="9:10">
-      <c r="I24" s="62" t="s">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I24" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="J24" s="62" t="s">
+      <c r="J24" s="29" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="9:10">
-      <c r="I25" s="62" t="s">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I25" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="J25" s="62" t="s">
+      <c r="J25" s="29" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="9:10">
-      <c r="I26" s="62" t="s">
+    <row r="26" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I26" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="J26" s="62" t="s">
+      <c r="J26" s="29" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="9:10">
-      <c r="I27" s="62" t="s">
+    <row r="27" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I27" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="J27" s="62" t="s">
+      <c r="J27" s="29" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="9:10">
-      <c r="I28" s="62" t="s">
+    <row r="28" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I28" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="J28" s="62" t="s">
+      <c r="J28" s="29" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="29" spans="9:10">
-      <c r="I29" s="62" t="s">
+    <row r="29" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I29" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="62" t="s">
+      <c r="J29" s="29" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="9:10">
-      <c r="I30" s="62" t="s">
+    <row r="30" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I30" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="J30" s="62" t="s">
+      <c r="J30" s="29" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="9:10">
-      <c r="I31" s="62" t="s">
+    <row r="31" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I31" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="J31" s="62" t="s">
+      <c r="J31" s="29" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="9:10">
-      <c r="I32" s="62" t="s">
+    <row r="32" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I32" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="J32" s="62" t="s">
+      <c r="J32" s="29" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="9:10">
-      <c r="I33" s="62" t="s">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I33" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="J33" s="62" t="s">
+      <c r="J33" s="29" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="9:10">
-      <c r="I34" s="62" t="s">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I34" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="J34" s="62" t="s">
+      <c r="J34" s="29" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="35" spans="9:10">
-      <c r="I35" s="62" t="s">
+    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I35" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="J35" s="62" t="s">
+      <c r="J35" s="29" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="9:10">
-      <c r="I36" s="62" t="s">
+    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I36" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="J36" s="62" t="s">
+      <c r="J36" s="29" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="9:10">
-      <c r="I37" s="62" t="s">
+    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I37" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="J37" s="62" t="s">
+      <c r="J37" s="29" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="9:10">
-      <c r="I38" s="62" t="s">
+    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I38" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="J38" s="62" t="s">
+      <c r="J38" s="29" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="39" spans="9:10">
-      <c r="I39" s="62" t="s">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I39" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="J39" s="62" t="s">
+      <c r="J39" s="29" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="9:10">
-      <c r="I40" s="62" t="s">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I40" s="29" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="9:10">
-      <c r="I41" s="62" t="s">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I41" s="29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="9:10">
-      <c r="I42" s="62" t="s">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I42" s="29" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="9:10">
-      <c r="I43" s="62" t="s">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I43" s="29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="9:10">
-      <c r="I44" s="62" t="s">
+    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I44" s="29" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="9:10">
-      <c r="I45" s="62" t="s">
+    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I45" s="29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="9:10">
-      <c r="I46" s="62" t="s">
+    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I46" s="29" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="9:10">
-      <c r="I47" s="62" t="s">
+    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I47" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="9:10">
-      <c r="I48" s="62" t="s">
+    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I48" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="9:9">
-      <c r="I49" s="62" t="s">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I49" s="29" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="9:9">
-      <c r="I50" s="62" t="s">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="29" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="9:9">
-      <c r="I51" s="62" t="s">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="29" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="9:9">
-      <c r="I52" s="62" t="s">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="29" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="9:9">
-      <c r="I53" s="62" t="s">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="29" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="9:9">
-      <c r="I54" s="62" t="s">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I54" s="29" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="9:9">
-      <c r="I55" s="62" t="s">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I55" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="9:9">
-      <c r="I56" s="62" t="s">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I56" s="29" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="9:9">
-      <c r="I57" s="62" t="s">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I57" s="29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="9:9">
-      <c r="I58" s="62" t="s">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I58" s="29" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="9:9">
-      <c r="I59" s="62" t="s">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I59" s="29" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="9:9">
-      <c r="I60" s="62" t="s">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I60" s="29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="9:9">
-      <c r="I61" s="62" t="s">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I61" s="29" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="9:9">
-      <c r="I62" s="62" t="s">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I62" s="29" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="9:9">
-      <c r="I63" s="62" t="s">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I63" s="29" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="9:9">
-      <c r="I64" s="62" t="s">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I64" s="29" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="9:9">
-      <c r="I65" s="62" t="s">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I65" s="29" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="9:9">
-      <c r="I66" s="62" t="s">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I66" s="29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="67" spans="9:9">
-      <c r="I67" s="62" t="s">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I67" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="9:9">
-      <c r="I68" s="62" t="s">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I68" s="29" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="9:9">
-      <c r="I69" s="62" t="s">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I69" s="29" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="9:9">
-      <c r="I70" s="62" t="s">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I70" s="29" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="9:9">
-      <c r="I71" s="62" t="s">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I71" s="29" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="9:9">
-      <c r="I72" s="62" t="s">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I72" s="29" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="9:9">
-      <c r="I73" s="62" t="s">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I73" s="29" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="9:9">
-      <c r="I74" s="62" t="s">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I74" s="29" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="9:9">
-      <c r="I75" s="62" t="s">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I75" s="29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="9:9">
-      <c r="I76" s="62" t="s">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I76" s="29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="77" spans="9:9">
-      <c r="I77" s="62" t="s">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I77" s="29" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="9:9">
-      <c r="I78" s="62" t="s">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I78" s="29" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="9:9">
-      <c r="I79" s="62" t="s">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I79" s="29" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="80" spans="9:9">
-      <c r="I80" s="62" t="s">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I80" s="29" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="9:9">
-      <c r="I81" s="62" t="s">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I81" s="29" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="9:9">
-      <c r="I82" s="62" t="s">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I82" s="29" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="9:9">
-      <c r="I83" s="62" t="s">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I83" s="29" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="9:9">
-      <c r="I84" s="62" t="s">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I84" s="29" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="85" spans="9:9">
-      <c r="I85" s="62" t="s">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I85" s="29" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="9:9">
-      <c r="I86" s="62" t="s">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I86" s="29" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="9:9">
-      <c r="I87" s="62" t="s">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I87" s="29" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="9:9">
-      <c r="I88" s="62" t="s">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I88" s="29" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="9:9">
-      <c r="I89" s="62" t="s">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I89" s="29" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="9:9">
-      <c r="I90" s="62" t="s">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I90" s="29" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="9:9">
-      <c r="I91" s="62" t="s">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I91" s="29" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="9:9">
-      <c r="I92" s="62" t="s">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I92" s="29" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="9:9">
-      <c r="I93" s="62" t="s">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I93" s="29" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="94" spans="9:9">
-      <c r="I94" s="62" t="s">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I94" s="29" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="95" spans="9:9">
-      <c r="I95" s="62" t="s">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I95" s="29" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="9:9">
-      <c r="I96" s="62" t="s">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I96" s="29" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="97" spans="9:9">
-      <c r="I97" s="62" t="s">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I97" s="29" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="9:9">
-      <c r="I98" s="62" t="s">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I98" s="29" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="9:9">
-      <c r="I99" s="62" t="s">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I99" s="29" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="9:9">
-      <c r="I100" s="62" t="s">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I100" s="29" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="9:9">
-      <c r="I101" s="62" t="s">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I101" s="29" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="102" spans="9:9">
-      <c r="I102" s="62" t="s">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I102" s="29" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="9:9">
-      <c r="I103" s="62" t="s">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I103" s="29" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="9:9">
-      <c r="I104" s="62" t="s">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I104" s="29" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="9:9">
-      <c r="I105" s="62" t="s">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I105" s="29" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="9:9">
-      <c r="I106" s="62" t="s">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I106" s="29" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="107" spans="9:9">
-      <c r="I107" s="62" t="s">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I107" s="29" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="9:9">
-      <c r="I108" s="62" t="s">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I108" s="29" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="9:9">
-      <c r="I109" s="62" t="s">
+    <row r="109" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I109" s="29" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="9:9">
-      <c r="I110" s="62" t="s">
+    <row r="110" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I110" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="9:9">
-      <c r="I111" s="62" t="s">
+    <row r="111" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I111" s="29" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="112" spans="9:9">
-      <c r="I112" s="62" t="s">
+    <row r="112" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I112" s="29" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="9:9">
-      <c r="I113" s="62" t="s">
+    <row r="113" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I113" s="29" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="114" spans="9:9">
-      <c r="I114" s="62" t="s">
+    <row r="114" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I114" s="29" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="115" spans="9:9">
-      <c r="I115" s="62" t="s">
+    <row r="115" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I115" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="116" spans="9:9">
-      <c r="I116" s="62" t="s">
+    <row r="116" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I116" s="29" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="117" spans="9:9">
-      <c r="I117" s="62" t="s">
+    <row r="117" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I117" s="29" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="118" spans="9:9">
-      <c r="I118" s="62" t="s">
+    <row r="118" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I118" s="29" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="119" spans="9:9">
-      <c r="I119" s="62" t="s">
+    <row r="119" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I119" s="29" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="120" spans="9:9">
-      <c r="I120" s="62" t="s">
+    <row r="120" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I120" s="29" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="121" spans="9:9">
-      <c r="I121" s="62" t="s">
+    <row r="121" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I121" s="29" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="122" spans="9:9">
-      <c r="I122" s="62" t="s">
+    <row r="122" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I122" s="29" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="123" spans="9:9">
-      <c r="I123" s="62" t="s">
+    <row r="123" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I123" s="29" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="124" spans="9:9">
-      <c r="I124" s="62" t="s">
+    <row r="124" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I124" s="29" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="125" spans="9:9">
-      <c r="I125" s="62" t="s">
+    <row r="125" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I125" s="29" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="126" spans="9:9">
-      <c r="I126" s="62" t="s">
+    <row r="126" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I126" s="29" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="127" spans="9:9">
-      <c r="I127" s="62" t="s">
+    <row r="127" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I127" s="29" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="128" spans="9:9">
-      <c r="I128" s="62" t="s">
+    <row r="128" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I128" s="29" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="129" spans="9:9">
-      <c r="I129" s="62" t="s">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I129" s="29" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="130" spans="9:9">
-      <c r="I130" s="62" t="s">
+    <row r="130" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I130" s="29" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="131" spans="9:9">
-      <c r="I131" s="62" t="s">
+    <row r="131" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I131" s="29" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="132" spans="9:9">
-      <c r="I132" s="62" t="s">
+    <row r="132" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I132" s="29" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="133" spans="9:9">
-      <c r="I133" s="62" t="s">
+    <row r="133" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I133" s="29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="134" spans="9:9">
-      <c r="I134" s="62" t="s">
+    <row r="134" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I134" s="29" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="135" spans="9:9">
-      <c r="I135" s="62" t="s">
+    <row r="135" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I135" s="29" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="136" spans="9:9">
-      <c r="I136" s="62" t="s">
+    <row r="136" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I136" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="9:9">
-      <c r="I137" s="62" t="s">
+    <row r="137" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I137" s="29" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="138" spans="9:9">
-      <c r="I138" s="62" t="s">
+    <row r="138" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I138" s="29" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="139" spans="9:9">
-      <c r="I139" s="62" t="s">
+    <row r="139" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I139" s="29" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="140" spans="9:9">
-      <c r="I140" s="62" t="s">
+    <row r="140" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I140" s="29" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="141" spans="9:9">
-      <c r="I141" s="62" t="s">
+    <row r="141" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I141" s="29" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="142" spans="9:9">
-      <c r="I142" s="62" t="s">
+    <row r="142" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I142" s="29" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="143" spans="9:9">
-      <c r="I143" s="62" t="s">
+    <row r="143" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I143" s="29" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="144" spans="9:9">
-      <c r="I144" s="62" t="s">
+    <row r="144" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I144" s="29" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="9:9">
-      <c r="I145" s="62" t="s">
+    <row r="145" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I145" s="29" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="146" spans="9:9">
-      <c r="I146" s="62" t="s">
+    <row r="146" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I146" s="29" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="147" spans="9:9">
-      <c r="I147" s="62" t="s">
+    <row r="147" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I147" s="29" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="9:9">
-      <c r="I148" s="62" t="s">
+    <row r="148" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I148" s="29" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="149" spans="9:9">
-      <c r="I149" s="62" t="s">
+    <row r="149" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I149" s="29" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="9:9">
-      <c r="I150" s="62" t="s">
+    <row r="150" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I150" s="29" t="s">
         <v>250</v>
       </c>
     </row>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/TempVenv/Plebs_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F270848-65C1-4042-8A26-3A647C0E2F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E715FB5-18C0-6C42-A9BA-4959100063B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1804,45 +1804,8 @@
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1868,9 +1831,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1935,13 +1895,59 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1952,12 +1958,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2549,7 +2549,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2566,667 +2566,667 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="7">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="7">
         <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7">
         <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="22"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="22"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="22"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="14">
         <v>44470</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="4">
         <v>20</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="37" t="s">
+      <c r="C34" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="37" t="s">
+      <c r="C35" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3336,1421 +3336,1403 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="7">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="7">
         <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="7">
         <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="7">
         <v>1460</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="49" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="22"/>
-      <c r="K7" s="50" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="9"/>
+      <c r="K7" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="22"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="9"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
     </row>
     <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="22"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="9"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
     </row>
     <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="22"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="9"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="52"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
     </row>
     <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="52"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="53" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="53"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="50"/>
+      <c r="I25" s="49"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="45" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="50"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="52"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="52"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="47" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="50"/>
-      <c r="AG32" s="50"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="50"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="50"/>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="50"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="52"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="52"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="50"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="50"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="50"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="50"/>
-      <c r="AE36" s="50"/>
-      <c r="AF36" s="50"/>
-      <c r="AG36" s="50"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="52"/>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="50"/>
-      <c r="AE37" s="50"/>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="50"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="52"/>
+      <c r="AE37" s="52"/>
+      <c r="AF37" s="52"/>
+      <c r="AG37" s="52"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="50"/>
-      <c r="AC38" s="50"/>
-      <c r="AD38" s="50"/>
-      <c r="AE38" s="50"/>
-      <c r="AF38" s="50"/>
-      <c r="AG38" s="50"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="52"/>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="52"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="52"/>
+      <c r="AG38" s="52"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="50"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-      <c r="AA40" s="50"/>
-      <c r="AB40" s="50"/>
-      <c r="AC40" s="50"/>
-      <c r="AD40" s="50"/>
-      <c r="AE40" s="50"/>
-      <c r="AF40" s="50"/>
-      <c r="AG40" s="50"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="52"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="52"/>
+      <c r="AE40" s="52"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="50"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="50"/>
-      <c r="AF42" s="50"/>
-      <c r="AG42" s="50"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="52"/>
+      <c r="AD42" s="52"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="K7:AG42"/>
@@ -4767,6 +4749,24 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -4805,8 +4805,8 @@
       <c r="F2" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
@@ -4818,853 +4818,853 @@
       <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="29" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="29" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="29" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="30" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="30" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="30" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="30" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="14" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="30" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="30" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="30" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="J17" s="44" t="s">
+      <c r="J17" s="30" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="30" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="19" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="30" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="20" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="30" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="21" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="J21" s="44" t="s">
+      <c r="J21" s="30" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="22" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="J22" s="44" t="s">
+      <c r="J22" s="30" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="44" t="s">
+      <c r="J23" s="30" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="24" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="J24" s="44" t="s">
+      <c r="J24" s="30" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="25" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="J25" s="44" t="s">
+      <c r="J25" s="30" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="J26" s="44" t="s">
+      <c r="J26" s="30" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="27" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="J27" s="44" t="s">
+      <c r="J27" s="30" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="28" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I28" s="44" t="s">
+      <c r="I28" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="J28" s="44" t="s">
+      <c r="J28" s="30" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="29" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I29" s="44" t="s">
+      <c r="I29" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="44" t="s">
+      <c r="J29" s="30" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="30" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I30" s="44" t="s">
+      <c r="I30" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="J30" s="44" t="s">
+      <c r="J30" s="30" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="31" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I31" s="44" t="s">
+      <c r="I31" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="J31" s="44" t="s">
+      <c r="J31" s="30" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="32" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I32" s="44" t="s">
+      <c r="I32" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="44" t="s">
+      <c r="J32" s="30" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="J33" s="44" t="s">
+      <c r="J33" s="30" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I34" s="44" t="s">
+      <c r="I34" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="J34" s="44" t="s">
+      <c r="J34" s="30" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="35" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I35" s="44" t="s">
+      <c r="I35" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="J35" s="44" t="s">
+      <c r="J35" s="30" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="36" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I36" s="44" t="s">
+      <c r="I36" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="J36" s="44" t="s">
+      <c r="J36" s="30" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="37" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I37" s="44" t="s">
+      <c r="I37" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="J37" s="44" t="s">
+      <c r="J37" s="30" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="38" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I38" s="44" t="s">
+      <c r="I38" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="J38" s="44" t="s">
+      <c r="J38" s="30" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="39" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="J39" s="44" t="s">
+      <c r="J39" s="30" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="40" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="30" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="41" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I41" s="44" t="s">
+      <c r="I41" s="30" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="42" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I42" s="44" t="s">
+      <c r="I42" s="30" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="43" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I43" s="44" t="s">
+      <c r="I43" s="30" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="44" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I44" s="44" t="s">
+      <c r="I44" s="30" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="45" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I45" s="44" t="s">
+      <c r="I45" s="30" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="46" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I46" s="44" t="s">
+      <c r="I46" s="30" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="47" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I47" s="44" t="s">
+      <c r="I47" s="30" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="48" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I48" s="44" t="s">
+      <c r="I48" s="30" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="44" t="s">
+      <c r="I49" s="30" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="50" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="44" t="s">
+      <c r="I50" s="30" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="44" t="s">
+      <c r="I51" s="30" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="44" t="s">
+      <c r="I52" s="30" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="44" t="s">
+      <c r="I53" s="30" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I54" s="44" t="s">
+      <c r="I54" s="30" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="44" t="s">
+      <c r="I55" s="30" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="44" t="s">
+      <c r="I56" s="30" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="44" t="s">
+      <c r="I57" s="30" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I58" s="44" t="s">
+      <c r="I58" s="30" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="44" t="s">
+      <c r="I59" s="30" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I60" s="44" t="s">
+      <c r="I60" s="30" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="61" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I61" s="44" t="s">
+      <c r="I61" s="30" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I62" s="44" t="s">
+      <c r="I62" s="30" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I63" s="44" t="s">
+      <c r="I63" s="30" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I64" s="44" t="s">
+      <c r="I64" s="30" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I65" s="44" t="s">
+      <c r="I65" s="30" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I66" s="44" t="s">
+      <c r="I66" s="30" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I67" s="44" t="s">
+      <c r="I67" s="30" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I68" s="44" t="s">
+      <c r="I68" s="30" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I69" s="44" t="s">
+      <c r="I69" s="30" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I70" s="44" t="s">
+      <c r="I70" s="30" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I71" s="44" t="s">
+      <c r="I71" s="30" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I72" s="44" t="s">
+      <c r="I72" s="30" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I73" s="44" t="s">
+      <c r="I73" s="30" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I74" s="44" t="s">
+      <c r="I74" s="30" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I75" s="44" t="s">
+      <c r="I75" s="30" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I76" s="44" t="s">
+      <c r="I76" s="30" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I77" s="44" t="s">
+      <c r="I77" s="30" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I78" s="44" t="s">
+      <c r="I78" s="30" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="44" t="s">
+      <c r="I79" s="30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I80" s="44" t="s">
+      <c r="I80" s="30" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I81" s="44" t="s">
+      <c r="I81" s="30" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="82" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I82" s="44" t="s">
+      <c r="I82" s="30" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I83" s="44" t="s">
+      <c r="I83" s="30" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="84" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I84" s="44" t="s">
+      <c r="I84" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I85" s="44" t="s">
+      <c r="I85" s="30" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="86" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I86" s="44" t="s">
+      <c r="I86" s="30" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="87" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I87" s="44" t="s">
+      <c r="I87" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="88" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I88" s="44" t="s">
+      <c r="I88" s="30" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="89" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I89" s="44" t="s">
+      <c r="I89" s="30" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="90" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I90" s="44" t="s">
+      <c r="I90" s="30" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="91" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I91" s="44" t="s">
+      <c r="I91" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="92" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I92" s="44" t="s">
+      <c r="I92" s="30" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I93" s="44" t="s">
+      <c r="I93" s="30" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="94" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I94" s="44" t="s">
+      <c r="I94" s="30" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="95" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I95" s="44" t="s">
+      <c r="I95" s="30" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="96" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I96" s="44" t="s">
+      <c r="I96" s="30" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I97" s="44" t="s">
+      <c r="I97" s="30" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I98" s="44" t="s">
+      <c r="I98" s="30" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I99" s="44" t="s">
+      <c r="I99" s="30" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I100" s="44" t="s">
+      <c r="I100" s="30" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I101" s="44" t="s">
+      <c r="I101" s="30" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I102" s="44" t="s">
+      <c r="I102" s="30" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="103" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I103" s="44" t="s">
+      <c r="I103" s="30" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="104" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I104" s="44" t="s">
+      <c r="I104" s="30" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="105" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I105" s="44" t="s">
+      <c r="I105" s="30" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="106" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I106" s="44" t="s">
+      <c r="I106" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="107" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I107" s="44" t="s">
+      <c r="I107" s="30" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="108" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I108" s="44" t="s">
+      <c r="I108" s="30" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="109" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I109" s="44" t="s">
+      <c r="I109" s="30" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="110" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I110" s="44" t="s">
+      <c r="I110" s="30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="111" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I111" s="44" t="s">
+      <c r="I111" s="30" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="112" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I112" s="44" t="s">
+      <c r="I112" s="30" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="113" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I113" s="44" t="s">
+      <c r="I113" s="30" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="114" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I114" s="44" t="s">
+      <c r="I114" s="30" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="115" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I115" s="44" t="s">
+      <c r="I115" s="30" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="116" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I116" s="44" t="s">
+      <c r="I116" s="30" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="117" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I117" s="44" t="s">
+      <c r="I117" s="30" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="118" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I118" s="44" t="s">
+      <c r="I118" s="30" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="119" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I119" s="44" t="s">
+      <c r="I119" s="30" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="120" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I120" s="44" t="s">
+      <c r="I120" s="30" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="121" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I121" s="44" t="s">
+      <c r="I121" s="30" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="122" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I122" s="44" t="s">
+      <c r="I122" s="30" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="123" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I123" s="44" t="s">
+      <c r="I123" s="30" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="124" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I124" s="44" t="s">
+      <c r="I124" s="30" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="125" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I125" s="44" t="s">
+      <c r="I125" s="30" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="126" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I126" s="44" t="s">
+      <c r="I126" s="30" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="127" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I127" s="44" t="s">
+      <c r="I127" s="30" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="128" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I128" s="44" t="s">
+      <c r="I128" s="30" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="129" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I129" s="44" t="s">
+      <c r="I129" s="30" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="130" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I130" s="44" t="s">
+      <c r="I130" s="30" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="131" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I131" s="44" t="s">
+      <c r="I131" s="30" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="132" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I132" s="44" t="s">
+      <c r="I132" s="30" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="133" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I133" s="44" t="s">
+      <c r="I133" s="30" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="134" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I134" s="44" t="s">
+      <c r="I134" s="30" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="135" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I135" s="44" t="s">
+      <c r="I135" s="30" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="136" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I136" s="44" t="s">
+      <c r="I136" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="137" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I137" s="44" t="s">
+      <c r="I137" s="30" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="138" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I138" s="44" t="s">
+      <c r="I138" s="30" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="139" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I139" s="44" t="s">
+      <c r="I139" s="30" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="140" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I140" s="44" t="s">
+      <c r="I140" s="30" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="141" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I141" s="44" t="s">
+      <c r="I141" s="30" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="142" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I142" s="44" t="s">
+      <c r="I142" s="30" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="143" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I143" s="44" t="s">
+      <c r="I143" s="30" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="144" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I144" s="44" t="s">
+      <c r="I144" s="30" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="145" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I145" s="44" t="s">
+      <c r="I145" s="30" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="146" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I146" s="44" t="s">
+      <c r="I146" s="30" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="147" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I147" s="44" t="s">
+      <c r="I147" s="30" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="148" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I148" s="44" t="s">
+      <c r="I148" s="30" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="149" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I149" s="44" t="s">
+      <c r="I149" s="30" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="150" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I150" s="44" t="s">
+      <c r="I150" s="30" t="s">
         <v>290</v>
       </c>
     </row>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/TempVenv/Plebs_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E715FB5-18C0-6C42-A9BA-4959100063B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE75087-4EA2-2246-B4C0-01E6590158E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2549,7 +2549,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2974,7 +2974,7 @@
         <v>61</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C25" s="38" t="s">
         <v>62</v>
@@ -2989,7 +2989,7 @@
         <v>63</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C26" s="35" t="s">
         <v>64</v>
@@ -3004,7 +3004,7 @@
         <v>65</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>66</v>
@@ -3019,7 +3019,7 @@
         <v>67</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>68</v>
@@ -3034,7 +3034,7 @@
         <v>69</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C29" s="35" t="s">
         <v>70</v>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/TempVenv/Plebs_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE75087-4EA2-2246-B4C0-01E6590158E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3065ED0E-67E2-304D-8CCE-BBD3BABD1D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2549,7 +2549,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="C17" sqref="C17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/TempVenv/Plebs_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3065ED0E-67E2-304D-8CCE-BBD3BABD1D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC60821-3663-F242-9E3A-86A71B71D247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1892,34 +1892,20 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1930,24 +1916,32 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1958,6 +1952,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2549,7 +2549,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:H17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2680,33 +2680,33 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2716,12 +2716,12 @@
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
@@ -2730,12 +2730,12 @@
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
@@ -2746,29 +2746,29 @@
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="33" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2778,12 +2778,12 @@
       <c r="B13" s="14">
         <v>44470</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
@@ -2792,12 +2792,12 @@
         <v>35</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
@@ -2808,12 +2808,12 @@
       <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -2853,13 +2853,13 @@
       <c r="B18" s="4">
         <v>20</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -2870,13 +2870,13 @@
         <v>47</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -2889,13 +2889,13 @@
       <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -2908,13 +2908,13 @@
       <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -2944,30 +2944,30 @@
         <v>57</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="33" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
@@ -2976,13 +2976,13 @@
       <c r="B25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -2991,13 +2991,13 @@
       <c r="B26" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
@@ -3006,13 +3006,13 @@
       <c r="B27" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
@@ -3021,13 +3021,13 @@
       <c r="B28" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
@@ -3036,13 +3036,13 @@
       <c r="B29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
@@ -3051,23 +3051,23 @@
       <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
@@ -3076,13 +3076,13 @@
       <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -3091,13 +3091,13 @@
       <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -3106,13 +3106,13 @@
       <c r="B34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -3121,13 +3121,13 @@
       <c r="B35" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
@@ -3136,13 +3136,13 @@
       <c r="B36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
@@ -3151,13 +3151,13 @@
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -3166,13 +3166,13 @@
       <c r="B38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
@@ -3181,52 +3181,52 @@
       <c r="B39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3482,154 +3482,154 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="51" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="9"/>
-      <c r="K7" s="52" t="s">
+      <c r="K7" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="9"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
     </row>
     <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -3638,74 +3638,74 @@
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="9"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
     </row>
     <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="33" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="9"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -3714,74 +3714,74 @@
       <c r="B13" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="52"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -3790,35 +3790,35 @@
       <c r="B15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -3827,36 +3827,36 @@
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -3865,108 +3865,108 @@
       <c r="B17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
@@ -3975,369 +3975,369 @@
       <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
     </row>
     <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="33" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="52"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="49" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="49"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
+      <c r="I25" s="53"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="52"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="52"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
@@ -4346,38 +4346,38 @@
       <c r="B30" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
@@ -4386,74 +4386,74 @@
       <c r="B31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="50"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="28"/>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -4462,36 +4462,36 @@
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="52"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -4500,239 +4500,257 @@
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="52"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="52"/>
-      <c r="AC36" s="52"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="52"/>
-      <c r="AG36" s="52"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="52"/>
-      <c r="AG37" s="52"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="50"/>
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="52"/>
-      <c r="AD38" s="52"/>
-      <c r="AE38" s="52"/>
-      <c r="AF38" s="52"/>
-      <c r="AG38" s="52"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="52"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="52"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="50"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="52"/>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="52"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="50"/>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="50"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="52"/>
-      <c r="AF42" s="52"/>
-      <c r="AG42" s="52"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50"/>
+      <c r="AD42" s="50"/>
+      <c r="AE42" s="50"/>
+      <c r="AF42" s="50"/>
+      <c r="AG42" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="K7:AG42"/>
@@ -4749,24 +4767,6 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/TempVenv/Plebs_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC60821-3663-F242-9E3A-86A71B71D247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2705D00-2DE2-C840-9133-258D4BF94756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1892,20 +1892,34 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1916,32 +1930,24 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1952,12 +1958,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2549,7 +2549,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2680,33 +2680,33 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2716,12 +2716,12 @@
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
@@ -2730,12 +2730,12 @@
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
@@ -2746,29 +2746,29 @@
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2778,12 +2778,12 @@
       <c r="B13" s="14">
         <v>44470</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
@@ -2792,12 +2792,12 @@
         <v>35</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
@@ -2808,12 +2808,12 @@
       <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -2853,13 +2853,13 @@
       <c r="B18" s="4">
         <v>20</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -2870,13 +2870,13 @@
         <v>47</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -2889,13 +2889,13 @@
       <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -2908,13 +2908,13 @@
       <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -2944,30 +2944,30 @@
         <v>57</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
@@ -2976,73 +2976,73 @@
       <c r="B25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
@@ -3051,23 +3051,23 @@
       <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
@@ -3076,13 +3076,13 @@
       <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -3091,13 +3091,13 @@
       <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -3106,13 +3106,13 @@
       <c r="B34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -3121,13 +3121,13 @@
       <c r="B35" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
@@ -3136,13 +3136,13 @@
       <c r="B36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
@@ -3151,13 +3151,13 @@
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -3166,13 +3166,13 @@
       <c r="B38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
@@ -3181,52 +3181,52 @@
       <c r="B39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3482,154 +3482,154 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="49" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="9"/>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="9"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
     </row>
     <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -3638,74 +3638,74 @@
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="9"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
     </row>
     <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="9"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -3714,74 +3714,74 @@
       <c r="B13" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="52"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -3790,35 +3790,35 @@
       <c r="B15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -3827,36 +3827,36 @@
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -3865,108 +3865,108 @@
       <c r="B17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
@@ -3975,369 +3975,369 @@
       <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
     </row>
     <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="52"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="53" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="53"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="50"/>
+      <c r="I25" s="49"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
@@ -4346,38 +4346,38 @@
       <c r="B30" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="50"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="52"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
@@ -4386,74 +4386,74 @@
       <c r="B31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="52"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="28"/>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="50"/>
-      <c r="AG32" s="50"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -4462,36 +4462,36 @@
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="50"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -4500,257 +4500,239 @@
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="50"/>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="50"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="52"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="52"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="50"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="50"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="50"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="50"/>
-      <c r="AE36" s="50"/>
-      <c r="AF36" s="50"/>
-      <c r="AG36" s="50"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="52"/>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="50"/>
-      <c r="AE37" s="50"/>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="50"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="52"/>
+      <c r="AE37" s="52"/>
+      <c r="AF37" s="52"/>
+      <c r="AG37" s="52"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="50"/>
-      <c r="AC38" s="50"/>
-      <c r="AD38" s="50"/>
-      <c r="AE38" s="50"/>
-      <c r="AF38" s="50"/>
-      <c r="AG38" s="50"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="52"/>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="52"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="52"/>
+      <c r="AG38" s="52"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="50"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-      <c r="AA40" s="50"/>
-      <c r="AB40" s="50"/>
-      <c r="AC40" s="50"/>
-      <c r="AD40" s="50"/>
-      <c r="AE40" s="50"/>
-      <c r="AF40" s="50"/>
-      <c r="AG40" s="50"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="52"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="52"/>
+      <c r="AE40" s="52"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="50"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="50"/>
-      <c r="AF42" s="50"/>
-      <c r="AG42" s="50"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="52"/>
+      <c r="AD42" s="52"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="K7:AG42"/>
@@ -4767,6 +4749,24 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/TempVenv/Plebs_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2705D00-2DE2-C840-9133-258D4BF94756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDF6EFB-831F-F145-8351-13D121B2087F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Information &amp; Examples" sheetId="2" r:id="rId2"/>
     <sheet name="Dropdowns" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1892,34 +1892,20 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1930,24 +1916,32 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1958,6 +1952,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2549,7 +2549,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2680,33 +2680,33 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2716,12 +2716,12 @@
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
@@ -2730,12 +2730,12 @@
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
@@ -2746,29 +2746,29 @@
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="33" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2778,12 +2778,12 @@
       <c r="B13" s="14">
         <v>44470</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
@@ -2792,12 +2792,12 @@
         <v>35</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
@@ -2808,12 +2808,12 @@
       <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -2853,13 +2853,13 @@
       <c r="B18" s="4">
         <v>20</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -2870,13 +2870,13 @@
         <v>47</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -2889,13 +2889,13 @@
       <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -2908,13 +2908,13 @@
       <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -2944,30 +2944,30 @@
         <v>57</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="33" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
@@ -2976,73 +2976,73 @@
       <c r="B25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
@@ -3051,23 +3051,23 @@
       <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
@@ -3076,13 +3076,13 @@
       <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -3091,13 +3091,13 @@
       <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -3106,13 +3106,13 @@
       <c r="B34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -3121,28 +3121,28 @@
       <c r="B35" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
@@ -3151,13 +3151,13 @@
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -3166,13 +3166,13 @@
       <c r="B38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
@@ -3181,52 +3181,52 @@
       <c r="B39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3482,154 +3482,154 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="51" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="9"/>
-      <c r="K7" s="52" t="s">
+      <c r="K7" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="9"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
     </row>
     <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -3638,74 +3638,74 @@
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="9"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
     </row>
     <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="33" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="9"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -3714,74 +3714,74 @@
       <c r="B13" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="52"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -3790,35 +3790,35 @@
       <c r="B15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -3827,36 +3827,36 @@
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -3865,108 +3865,108 @@
       <c r="B17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
@@ -3975,369 +3975,369 @@
       <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
     </row>
     <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="33" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="52"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="49" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="49"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
+      <c r="I25" s="53"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="52"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="52"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
@@ -4346,38 +4346,38 @@
       <c r="B30" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
@@ -4386,74 +4386,74 @@
       <c r="B31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="50"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="28"/>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -4462,36 +4462,36 @@
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="52"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -4500,239 +4500,257 @@
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="52"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="52"/>
-      <c r="AC36" s="52"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="52"/>
-      <c r="AG36" s="52"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="52"/>
-      <c r="AG37" s="52"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="50"/>
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="52"/>
-      <c r="AD38" s="52"/>
-      <c r="AE38" s="52"/>
-      <c r="AF38" s="52"/>
-      <c r="AG38" s="52"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="52"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="52"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="50"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="52"/>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="52"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="50"/>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="50"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="52"/>
-      <c r="AF42" s="52"/>
-      <c r="AG42" s="52"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50"/>
+      <c r="AD42" s="50"/>
+      <c r="AE42" s="50"/>
+      <c r="AF42" s="50"/>
+      <c r="AG42" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="K7:AG42"/>
@@ -4749,24 +4767,6 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/TempVenv/Plebs_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDF6EFB-831F-F145-8351-13D121B2087F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD676116-A0C5-9F48-97DF-E92002B11572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2549,7 +2549,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2989,7 +2989,7 @@
         <v>63</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>64</v>
@@ -3004,7 +3004,7 @@
         <v>65</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>66</v>
@@ -3019,7 +3019,7 @@
         <v>67</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>68</v>
@@ -3034,7 +3034,7 @@
         <v>69</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>70</v>
@@ -3134,7 +3134,7 @@
         <v>82</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C36" s="47" t="s">
         <v>83</v>
@@ -3179,7 +3179,7 @@
         <v>88</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C39" s="48" t="s">
         <v>89</v>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/TempVenv/Plebs_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD676116-A0C5-9F48-97DF-E92002B11572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F86E0-5E4B-264C-A4A8-D4CA44E3882C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1892,20 +1892,34 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1916,32 +1930,24 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1952,12 +1958,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2549,7 +2549,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="C17" sqref="C17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2680,33 +2680,33 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2716,12 +2716,12 @@
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
@@ -2730,12 +2730,12 @@
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
@@ -2746,29 +2746,29 @@
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2778,12 +2778,12 @@
       <c r="B13" s="14">
         <v>44470</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
@@ -2792,12 +2792,12 @@
         <v>35</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
@@ -2808,12 +2808,12 @@
       <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -2853,13 +2853,13 @@
       <c r="B18" s="4">
         <v>20</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -2870,13 +2870,13 @@
         <v>47</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -2889,13 +2889,13 @@
       <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -2908,13 +2908,13 @@
       <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -2944,30 +2944,30 @@
         <v>57</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
@@ -2976,73 +2976,73 @@
       <c r="B25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
@@ -3051,23 +3051,23 @@
       <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
@@ -3076,13 +3076,13 @@
       <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -3091,13 +3091,13 @@
       <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -3106,13 +3106,13 @@
       <c r="B34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -3121,28 +3121,28 @@
       <c r="B35" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
@@ -3151,13 +3151,13 @@
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -3166,13 +3166,13 @@
       <c r="B38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
@@ -3181,52 +3181,52 @@
       <c r="B39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3482,154 +3482,154 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="49" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="9"/>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="9"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
     </row>
     <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -3638,74 +3638,74 @@
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="9"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
     </row>
     <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="9"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -3714,74 +3714,74 @@
       <c r="B13" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="52"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -3790,35 +3790,35 @@
       <c r="B15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -3827,36 +3827,36 @@
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -3865,108 +3865,108 @@
       <c r="B17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
@@ -3975,369 +3975,369 @@
       <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
     </row>
     <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="52"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="53" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="53"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="50"/>
+      <c r="I25" s="49"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
@@ -4346,38 +4346,38 @@
       <c r="B30" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="50"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="52"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
@@ -4386,74 +4386,74 @@
       <c r="B31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="52"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="28"/>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="50"/>
-      <c r="AG32" s="50"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -4462,36 +4462,36 @@
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="50"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -4500,257 +4500,239 @@
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="50"/>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="50"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="52"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="52"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="50"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="50"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="50"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="50"/>
-      <c r="AE36" s="50"/>
-      <c r="AF36" s="50"/>
-      <c r="AG36" s="50"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="52"/>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="50"/>
-      <c r="AE37" s="50"/>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="50"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="52"/>
+      <c r="AE37" s="52"/>
+      <c r="AF37" s="52"/>
+      <c r="AG37" s="52"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="50"/>
-      <c r="AC38" s="50"/>
-      <c r="AD38" s="50"/>
-      <c r="AE38" s="50"/>
-      <c r="AF38" s="50"/>
-      <c r="AG38" s="50"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="52"/>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="52"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="52"/>
+      <c r="AG38" s="52"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="50"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-      <c r="AA40" s="50"/>
-      <c r="AB40" s="50"/>
-      <c r="AC40" s="50"/>
-      <c r="AD40" s="50"/>
-      <c r="AE40" s="50"/>
-      <c r="AF40" s="50"/>
-      <c r="AG40" s="50"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="52"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="52"/>
+      <c r="AE40" s="52"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="50"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="50"/>
-      <c r="AF42" s="50"/>
-      <c r="AG42" s="50"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="52"/>
+      <c r="AD42" s="52"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="K7:AG42"/>
@@ -4767,6 +4749,24 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/TempVenv/Plebs_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F86E0-5E4B-264C-A4A8-D4CA44E3882C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079571A-2FDC-3A40-81C8-DB2DC07F7F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="293">
   <si>
     <t>Index</t>
   </si>
@@ -1417,6 +1417,12 @@
   </si>
   <si>
     <t>yellow</t>
+  </si>
+  <si>
+    <t>TLT</t>
+  </si>
+  <si>
+    <t>TLT high duration bond ETF</t>
   </si>
 </sst>
 </file>
@@ -1892,34 +1898,20 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1930,24 +1922,32 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1958,6 +1958,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2549,7 +2555,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:H17"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2647,10 +2653,18 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
+      <c r="D4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="H4" s="7">
         <v>730</v>
       </c>
@@ -2680,33 +2694,33 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2716,12 +2730,12 @@
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
@@ -2730,12 +2744,12 @@
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
@@ -2746,29 +2760,29 @@
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="33" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2778,12 +2792,12 @@
       <c r="B13" s="14">
         <v>44470</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
@@ -2792,12 +2806,12 @@
         <v>35</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
@@ -2808,12 +2822,12 @@
       <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -2853,13 +2867,13 @@
       <c r="B18" s="4">
         <v>20</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -2870,13 +2884,13 @@
         <v>47</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -2889,13 +2903,13 @@
       <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -2908,13 +2922,13 @@
       <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -2944,30 +2958,30 @@
         <v>57</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="33" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
@@ -2976,13 +2990,13 @@
       <c r="B25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -2991,13 +3005,13 @@
       <c r="B26" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
@@ -3006,13 +3020,13 @@
       <c r="B27" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
@@ -3021,13 +3035,13 @@
       <c r="B28" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
@@ -3036,13 +3050,13 @@
       <c r="B29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
@@ -3051,23 +3065,23 @@
       <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
@@ -3076,13 +3090,13 @@
       <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -3091,13 +3105,13 @@
       <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -3106,13 +3120,13 @@
       <c r="B34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -3121,13 +3135,13 @@
       <c r="B35" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
@@ -3136,13 +3150,13 @@
       <c r="B36" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
@@ -3151,13 +3165,13 @@
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -3166,13 +3180,13 @@
       <c r="B38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
@@ -3181,52 +3195,52 @@
       <c r="B39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3482,154 +3496,154 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="51" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="9"/>
-      <c r="K7" s="52" t="s">
+      <c r="K7" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="9"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
     </row>
     <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -3638,74 +3652,74 @@
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="9"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
     </row>
     <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="33" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="9"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -3714,74 +3728,74 @@
       <c r="B13" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="52"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -3790,35 +3804,35 @@
       <c r="B15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -3827,36 +3841,36 @@
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -3865,108 +3879,108 @@
       <c r="B17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
@@ -3975,369 +3989,369 @@
       <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
     </row>
     <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="33" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="52"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="49" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="49"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
+      <c r="I25" s="53"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="52"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="52"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
@@ -4346,38 +4360,38 @@
       <c r="B30" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
@@ -4386,74 +4400,74 @@
       <c r="B31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="50"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="28"/>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -4462,36 +4476,36 @@
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="52"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -4500,239 +4514,257 @@
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="52"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="52"/>
-      <c r="AC36" s="52"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="52"/>
-      <c r="AG36" s="52"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="52"/>
-      <c r="AG37" s="52"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="50"/>
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="52"/>
-      <c r="AD38" s="52"/>
-      <c r="AE38" s="52"/>
-      <c r="AF38" s="52"/>
-      <c r="AG38" s="52"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="52"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="52"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="50"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="52"/>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="52"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="50"/>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="50"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="52"/>
-      <c r="AF42" s="52"/>
-      <c r="AG42" s="52"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50"/>
+      <c r="AD42" s="50"/>
+      <c r="AE42" s="50"/>
+      <c r="AF42" s="50"/>
+      <c r="AG42" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="K7:AG42"/>
@@ -4749,24 +4781,6 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/TempVenv/Plebs_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079571A-2FDC-3A40-81C8-DB2DC07F7F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BF5B10-EB93-854F-8003-9B9F5E969233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1898,20 +1898,34 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1922,32 +1936,24 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1958,12 +1964,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2552,10 +2552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2694,33 +2694,33 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2730,12 +2730,12 @@
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
@@ -2744,12 +2744,12 @@
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
@@ -2760,29 +2760,29 @@
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2792,12 +2792,12 @@
       <c r="B13" s="14">
         <v>44470</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
@@ -2806,12 +2806,12 @@
         <v>35</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
@@ -2822,12 +2822,12 @@
       <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -2844,7 +2844,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
@@ -2860,81 +2860,92 @@
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="4">
         <v>20</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>30.4375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <f>M18*24</f>
+        <v>730.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <f>M19/4</f>
+        <v>182.625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>55</v>
       </c>
@@ -2953,150 +2964,150 @@
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
+    <row r="24" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-    </row>
-    <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -3105,13 +3116,13 @@
       <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -3120,13 +3131,13 @@
       <c r="B34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -3135,28 +3146,28 @@
       <c r="B35" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
@@ -3165,13 +3176,13 @@
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -3180,13 +3191,13 @@
       <c r="B38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
@@ -3195,52 +3206,52 @@
       <c r="B39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3496,154 +3507,154 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="49" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="9"/>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="9"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
     </row>
     <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -3652,74 +3663,74 @@
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="9"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
     </row>
     <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="9"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -3728,74 +3739,74 @@
       <c r="B13" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="52"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -3804,35 +3815,35 @@
       <c r="B15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -3841,36 +3852,36 @@
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -3879,108 +3890,108 @@
       <c r="B17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
@@ -3989,369 +4000,369 @@
       <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
     </row>
     <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="52"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="53" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="53"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="50"/>
+      <c r="I25" s="49"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
@@ -4360,38 +4371,38 @@
       <c r="B30" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="50"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="52"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
@@ -4400,74 +4411,74 @@
       <c r="B31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="52"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="28"/>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="50"/>
-      <c r="AG32" s="50"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -4476,36 +4487,36 @@
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="50"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -4514,257 +4525,239 @@
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="50"/>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="50"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="52"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="52"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="50"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="50"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="50"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="50"/>
-      <c r="AE36" s="50"/>
-      <c r="AF36" s="50"/>
-      <c r="AG36" s="50"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="52"/>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="50"/>
-      <c r="AE37" s="50"/>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="50"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="52"/>
+      <c r="AE37" s="52"/>
+      <c r="AF37" s="52"/>
+      <c r="AG37" s="52"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="50"/>
-      <c r="AC38" s="50"/>
-      <c r="AD38" s="50"/>
-      <c r="AE38" s="50"/>
-      <c r="AF38" s="50"/>
-      <c r="AG38" s="50"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="52"/>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="52"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="52"/>
+      <c r="AG38" s="52"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="50"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-      <c r="AA40" s="50"/>
-      <c r="AB40" s="50"/>
-      <c r="AC40" s="50"/>
-      <c r="AD40" s="50"/>
-      <c r="AE40" s="50"/>
-      <c r="AF40" s="50"/>
-      <c r="AG40" s="50"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="52"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="52"/>
+      <c r="AE40" s="52"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="50"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="50"/>
-      <c r="AF42" s="50"/>
-      <c r="AG42" s="50"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="52"/>
+      <c r="AD42" s="52"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="K7:AG42"/>
@@ -4781,6 +4774,24 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/TempVenv/Plebs_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BF5B10-EB93-854F-8003-9B9F5E969233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23007446-9F8A-E744-8146-D32FD3D5CAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1898,34 +1898,20 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1936,24 +1922,32 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1964,6 +1958,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2555,7 +2555,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2694,33 +2694,33 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2730,12 +2730,12 @@
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
@@ -2744,12 +2744,12 @@
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
@@ -2760,29 +2760,29 @@
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="33" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2792,12 +2792,12 @@
       <c r="B13" s="14">
         <v>44470</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
@@ -2806,12 +2806,12 @@
         <v>35</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
@@ -2822,12 +2822,12 @@
       <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -2867,13 +2867,13 @@
       <c r="B18" s="4">
         <v>20</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -2887,13 +2887,13 @@
         <v>47</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -2910,13 +2910,13 @@
       <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -2933,13 +2933,13 @@
       <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -2969,30 +2969,30 @@
         <v>57</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="33" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
@@ -3001,13 +3001,13 @@
       <c r="B25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -3016,13 +3016,13 @@
       <c r="B26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
@@ -3031,13 +3031,13 @@
       <c r="B27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
@@ -3046,13 +3046,13 @@
       <c r="B28" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
@@ -3061,13 +3061,13 @@
       <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
@@ -3076,23 +3076,23 @@
       <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
@@ -3101,13 +3101,13 @@
       <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -3116,13 +3116,13 @@
       <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -3131,13 +3131,13 @@
       <c r="B34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -3146,13 +3146,13 @@
       <c r="B35" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
@@ -3161,13 +3161,13 @@
       <c r="B36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
@@ -3176,13 +3176,13 @@
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -3191,67 +3191,67 @@
       <c r="B38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>88</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3507,154 +3507,154 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="51" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="9"/>
-      <c r="K7" s="52" t="s">
+      <c r="K7" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="9"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
     </row>
     <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -3663,74 +3663,74 @@
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="9"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
     </row>
     <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="33" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="9"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -3739,74 +3739,74 @@
       <c r="B13" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="52"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -3815,35 +3815,35 @@
       <c r="B15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -3852,36 +3852,36 @@
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -3890,108 +3890,108 @@
       <c r="B17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
@@ -4000,369 +4000,369 @@
       <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
     </row>
     <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="33" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="52"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="49" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="49"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
+      <c r="I25" s="53"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="52"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="52"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
@@ -4371,38 +4371,38 @@
       <c r="B30" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
@@ -4411,74 +4411,74 @@
       <c r="B31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="50"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="28"/>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -4487,36 +4487,36 @@
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="52"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -4525,239 +4525,257 @@
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="52"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="52"/>
-      <c r="AC36" s="52"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="52"/>
-      <c r="AG36" s="52"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="52"/>
-      <c r="AG37" s="52"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="50"/>
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="52"/>
-      <c r="AD38" s="52"/>
-      <c r="AE38" s="52"/>
-      <c r="AF38" s="52"/>
-      <c r="AG38" s="52"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="52"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="52"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="50"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="52"/>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="52"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="50"/>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="50"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="52"/>
-      <c r="AF42" s="52"/>
-      <c r="AG42" s="52"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50"/>
+      <c r="AD42" s="50"/>
+      <c r="AE42" s="50"/>
+      <c r="AF42" s="50"/>
+      <c r="AG42" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="K7:AG42"/>
@@ -4774,24 +4792,6 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/TempVenv/Plebs_Macro/NetLiquidity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23007446-9F8A-E744-8146-D32FD3D5CAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B14089-44D8-2149-9F20-B20376C172FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1422,7 +1422,7 @@
     <t>TLT</t>
   </si>
   <si>
-    <t>TLT high duration bond ETF</t>
+    <t>TLT: long bond ETF</t>
   </si>
 </sst>
 </file>
@@ -1898,20 +1898,34 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1922,32 +1936,24 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1958,12 +1964,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2555,7 +2555,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2608,16 +2608,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>291</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="H2" s="7">
         <v>180</v>
@@ -2654,16 +2654,16 @@
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>291</v>
+        <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>730</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="6"/>
       <c r="F5" s="4"/>
       <c r="G5" s="6"/>
@@ -2694,33 +2694,33 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2730,12 +2730,12 @@
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
@@ -2744,12 +2744,12 @@
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
@@ -2760,29 +2760,29 @@
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2792,12 +2792,12 @@
       <c r="B13" s="14">
         <v>44470</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
@@ -2806,12 +2806,12 @@
         <v>35</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
@@ -2822,12 +2822,12 @@
       <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -2867,13 +2867,13 @@
       <c r="B18" s="4">
         <v>20</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -2887,13 +2887,13 @@
         <v>47</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -2910,13 +2910,13 @@
       <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -2933,13 +2933,13 @@
       <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -2969,30 +2969,30 @@
         <v>57</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
@@ -3001,73 +3001,73 @@
       <c r="B25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
@@ -3076,23 +3076,23 @@
       <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
@@ -3101,13 +3101,13 @@
       <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -3116,13 +3116,13 @@
       <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -3131,13 +3131,13 @@
       <c r="B34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -3146,28 +3146,28 @@
       <c r="B35" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
@@ -3176,13 +3176,13 @@
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -3191,13 +3191,13 @@
       <c r="B38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
@@ -3206,52 +3206,52 @@
       <c r="B39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3507,154 +3507,154 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="49" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="9"/>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="9"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
     </row>
     <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -3663,74 +3663,74 @@
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="9"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
     </row>
     <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="9"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -3739,74 +3739,74 @@
       <c r="B13" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="52"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -3815,35 +3815,35 @@
       <c r="B15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -3852,36 +3852,36 @@
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -3890,108 +3890,108 @@
       <c r="B17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
@@ -4000,369 +4000,369 @@
       <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
     </row>
     <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="52"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="53" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="53"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="50"/>
+      <c r="I25" s="49"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
@@ -4371,38 +4371,38 @@
       <c r="B30" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="50"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="52"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
@@ -4411,74 +4411,74 @@
       <c r="B31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="52"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="28"/>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="50"/>
-      <c r="AG32" s="50"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -4487,36 +4487,36 @@
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="50"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -4525,257 +4525,239 @@
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="50"/>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="50"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="52"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="52"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="50"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="50"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="50"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="50"/>
-      <c r="AE36" s="50"/>
-      <c r="AF36" s="50"/>
-      <c r="AG36" s="50"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="52"/>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="50"/>
-      <c r="AE37" s="50"/>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="50"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="52"/>
+      <c r="AE37" s="52"/>
+      <c r="AF37" s="52"/>
+      <c r="AG37" s="52"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="50"/>
-      <c r="AC38" s="50"/>
-      <c r="AD38" s="50"/>
-      <c r="AE38" s="50"/>
-      <c r="AF38" s="50"/>
-      <c r="AG38" s="50"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="52"/>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="52"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="52"/>
+      <c r="AG38" s="52"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="50"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-      <c r="AA40" s="50"/>
-      <c r="AB40" s="50"/>
-      <c r="AC40" s="50"/>
-      <c r="AD40" s="50"/>
-      <c r="AE40" s="50"/>
-      <c r="AF40" s="50"/>
-      <c r="AG40" s="50"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="52"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="52"/>
+      <c r="AE40" s="52"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="50"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="50"/>
-      <c r="AF42" s="50"/>
-      <c r="AG42" s="50"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="52"/>
+      <c r="AD42" s="52"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="K7:AG42"/>
@@ -4792,6 +4774,24 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B14089-44D8-2149-9F20-B20376C172FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1BF02-2A42-2347-8FE8-39366FDFEB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="293">
   <si>
     <t>Index</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>API Key</t>
-  </si>
-  <si>
-    <t>f632119c4e0599a3229fec5a9ac83b1c</t>
   </si>
   <si>
     <t>Paste your FRED API key in here. Get free at FRED: https://fred.stlouisfed.org/</t>
@@ -1424,6 +1421,9 @@
   <si>
     <t>TLT: long bond ETF</t>
   </si>
+  <si>
+    <t xml:space="preserve">Chart showing the balance sheets of the different central banks (in USD). </t>
+  </si>
 </sst>
 </file>
 
@@ -1432,7 +1432,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1646,6 +1646,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -1808,7 +1814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1898,34 +1904,20 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1936,24 +1928,32 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1964,6 +1964,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2552,10 +2561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2608,16 +2617,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H2" s="7">
         <v>180</v>
@@ -2694,165 +2703,163 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="C9" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-    </row>
-    <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="14">
         <v>44470</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="C13" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="40" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>42</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
@@ -2860,100 +2867,89 @@
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4">
         <v>20</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="C18" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
-      <c r="M18">
-        <v>30.4375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
-      <c r="M19">
-        <f>M18*24</f>
-        <v>730.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
-      <c r="M20">
-        <f>M19/4</f>
-        <v>182.625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2964,294 +2960,294 @@
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
+    <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="33" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="B26" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="35" t="s">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="B27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="35" t="s">
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="B28" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="35" t="s">
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+      <c r="B29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="35" t="s">
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
         <v>70</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>71</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+    </row>
+    <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-    </row>
-    <row r="31" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
         <v>73</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="C32" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="C33" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
+      <c r="C34" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
+      <c r="C35" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+        <v>14</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="C37" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
+      <c r="C38" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
+      <c r="C39" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3391,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>9</v>
@@ -3403,7 +3399,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -3417,7 +3413,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="4" t="s">
@@ -3441,20 +3437,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="H4" s="7">
         <v>730</v>
@@ -3469,16 +3465,16 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>1460</v>
@@ -3489,1275 +3485,1293 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="9"/>
+      <c r="K7" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="9"/>
-      <c r="K7" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="B8" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="9"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="C9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
     </row>
     <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="C11" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="9"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
     </row>
     <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="9"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="52"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
+        <v>109</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
+      <c r="C17" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
+      <c r="C19" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="35" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+    </row>
+    <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
-    </row>
-    <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="52"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="49"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="53"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="52"/>
+      <c r="A27" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="52"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
+      <c r="C30" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
+      <c r="C31" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="50"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="52"/>
+      <c r="C33" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="52"/>
+      <c r="C34" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="52"/>
-      <c r="AC36" s="52"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="52"/>
-      <c r="AG36" s="52"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="52"/>
-      <c r="AG37" s="52"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="50"/>
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="52"/>
-      <c r="AD38" s="52"/>
-      <c r="AE38" s="52"/>
-      <c r="AF38" s="52"/>
-      <c r="AG38" s="52"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="52"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="52"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="50"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="52"/>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="52"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="50"/>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="50"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="52"/>
-      <c r="AF42" s="52"/>
-      <c r="AG42" s="52"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50"/>
+      <c r="AD42" s="50"/>
+      <c r="AE42" s="50"/>
+      <c r="AF42" s="50"/>
+      <c r="AG42" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="K7:AG42"/>
@@ -4774,24 +4788,6 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -4825,10 +4821,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
@@ -4838,45 +4834,45 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="30" t="s">
+      <c r="J3" s="29" t="s">
         <v>116</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="4:10" x14ac:dyDescent="0.2">
       <c r="I4" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="29" t="s">
         <v>118</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="4:10" x14ac:dyDescent="0.2">
       <c r="I5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="29" t="s">
         <v>120</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.2">
       <c r="I6" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="29" t="s">
         <v>122</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.2">
       <c r="I7" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J7" s="29" t="s">
         <v>16</v>
@@ -4884,7 +4880,7 @@
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.2">
       <c r="I8" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>11</v>
@@ -4895,159 +4891,159 @@
         <v>18</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.2">
       <c r="I10" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="30" t="s">
         <v>127</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.2">
       <c r="I11" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="30" t="s">
         <v>129</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.2">
       <c r="I12" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="30" t="s">
         <v>131</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.2">
       <c r="I13" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="30" t="s">
         <v>133</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="14" spans="4:10" x14ac:dyDescent="0.2">
       <c r="I14" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.2">
       <c r="I15" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="30" t="s">
         <v>136</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.2">
       <c r="I16" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" s="30" t="s">
         <v>138</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="17" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I17" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="30" t="s">
         <v>140</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I18" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" s="30" t="s">
         <v>142</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I19" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I20" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" s="30" t="s">
         <v>145</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I21" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="30" t="s">
         <v>147</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I22" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="30" t="s">
         <v>149</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I23" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" s="30" t="s">
         <v>151</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="24" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I24" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" s="30" t="s">
         <v>153</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="25" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I25" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" s="30" t="s">
         <v>155</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="26" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I26" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" s="30" t="s">
         <v>157</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="27" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I27" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" s="30" t="s">
         <v>159</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="28" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I28" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="J28" s="30" t="s">
         <v>161</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="29" spans="9:10" x14ac:dyDescent="0.2">
@@ -5055,642 +5051,642 @@
         <v>13</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I30" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="J30" s="30" t="s">
         <v>164</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="31" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I31" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="J31" s="30" t="s">
         <v>166</v>
-      </c>
-      <c r="J31" s="30" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="32" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I32" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="J32" s="30" t="s">
         <v>168</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I33" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="J33" s="30" t="s">
         <v>170</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I34" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="J34" s="30" t="s">
         <v>172</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="35" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I35" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="J35" s="30" t="s">
         <v>174</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="36" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I36" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="J36" s="30" t="s">
         <v>176</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="37" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I37" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="J37" s="30" t="s">
         <v>178</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="38" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I38" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="J38" s="30" t="s">
         <v>180</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="39" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I39" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="J39" s="30" t="s">
         <v>182</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="40" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I40" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I41" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I42" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I43" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I44" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I45" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I46" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I47" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I48" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I49" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I50" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I51" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I52" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I53" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I54" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I55" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I56" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I57" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I58" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I59" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I60" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I61" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I62" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I63" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I64" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I65" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I66" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I67" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I68" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I69" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I70" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I71" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I72" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I73" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I74" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I75" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I76" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I77" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I78" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I79" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I80" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I81" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I82" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I83" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I84" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I85" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I86" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I87" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I88" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I89" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I90" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I91" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I92" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I93" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I94" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I95" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I96" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I97" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I98" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I99" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I100" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I101" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I102" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I103" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I104" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I105" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I106" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I107" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I108" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I109" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I110" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I111" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I112" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I113" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I114" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I115" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I116" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I117" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I118" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I119" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I120" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I121" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I122" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I123" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I124" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I125" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I126" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I127" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I128" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="129" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I129" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="130" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I130" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I131" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="132" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I132" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I133" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="134" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I134" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I135" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="136" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I136" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I137" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="138" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I138" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I139" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I140" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I141" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="142" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I142" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I143" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I144" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="145" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I145" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I146" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="147" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I147" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="148" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I148" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I149" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="150" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I150" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1BF02-2A42-2347-8FE8-39366FDFEB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F31EDFE-932F-7443-B081-4B1124154906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1419,10 +1419,10 @@
     <t>TLT</t>
   </si>
   <si>
-    <t>TLT: long bond ETF</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chart showing the balance sheets of the different central banks (in USD). </t>
+  </si>
+  <si>
+    <t>TLT - high duration bond ETF</t>
   </si>
 </sst>
 </file>
@@ -1904,20 +1904,37 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1928,32 +1945,24 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1964,15 +1973,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2564,7 +2564,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2614,19 +2614,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="H2" s="7">
         <v>180</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -2663,16 +2663,16 @@
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>290</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="H4" s="7">
         <v>730</v>
@@ -2703,31 +2703,31 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2737,12 +2737,12 @@
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
@@ -2751,12 +2751,12 @@
         <v>25</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
@@ -2767,29 +2767,29 @@
       <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2797,14 +2797,14 @@
         <v>32</v>
       </c>
       <c r="B13" s="14">
-        <v>44470</v>
-      </c>
-      <c r="C13" s="34" t="s">
+        <v>44440</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
@@ -2813,12 +2813,12 @@
         <v>34</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
@@ -2829,12 +2829,12 @@
       <c r="B15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -2843,13 +2843,13 @@
       <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
@@ -2858,14 +2858,14 @@
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -2874,13 +2874,13 @@
       <c r="B18" s="4">
         <v>20</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -2891,13 +2891,13 @@
         <v>46</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -2910,13 +2910,13 @@
       <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -2929,13 +2929,13 @@
       <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -2965,30 +2965,30 @@
         <v>56</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
@@ -2997,13 +2997,13 @@
       <c r="B25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -3012,13 +3012,13 @@
       <c r="B26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
@@ -3027,13 +3027,13 @@
       <c r="B27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
@@ -3042,13 +3042,13 @@
       <c r="B28" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
@@ -3057,13 +3057,13 @@
       <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
@@ -3072,23 +3072,23 @@
       <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
@@ -3097,13 +3097,13 @@
       <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -3112,13 +3112,13 @@
       <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -3127,13 +3127,13 @@
       <c r="B34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -3142,13 +3142,13 @@
       <c r="B35" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
@@ -3157,13 +3157,13 @@
       <c r="B36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="C36" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
@@ -3172,13 +3172,13 @@
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -3187,67 +3187,67 @@
       <c r="B38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>87</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3503,154 +3503,154 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="49" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="9"/>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="9"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
     </row>
     <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -3659,74 +3659,74 @@
       <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="9"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
     </row>
     <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="9"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -3735,74 +3735,74 @@
       <c r="B13" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="53"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -3811,35 +3811,35 @@
       <c r="B15" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -3848,36 +3848,36 @@
       <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="53"/>
+      <c r="AG16" s="53"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -3886,108 +3886,108 @@
       <c r="B17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="53"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="53"/>
+      <c r="AF18" s="53"/>
+      <c r="AG18" s="53"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="53"/>
+      <c r="AE19" s="53"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="53"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
@@ -3996,369 +3996,369 @@
       <c r="B20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="53"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="53"/>
+      <c r="AE21" s="53"/>
+      <c r="AF21" s="53"/>
+      <c r="AG21" s="53"/>
     </row>
     <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="53"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="53" t="s">
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="I25" s="53"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="53"/>
+      <c r="AE25" s="53"/>
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="53"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="53"/>
+      <c r="AG26" s="53"/>
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>73</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="53"/>
+      <c r="AG28" s="53"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
@@ -4367,38 +4367,38 @@
       <c r="B30" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="50"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="53"/>
+      <c r="AG30" s="53"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
@@ -4407,74 +4407,74 @@
       <c r="B31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B32" s="28"/>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="50"/>
-      <c r="AG32" s="50"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="53"/>
+      <c r="AC32" s="53"/>
+      <c r="AD32" s="53"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="53"/>
+      <c r="AG32" s="53"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -4483,36 +4483,36 @@
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="50"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="53"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -4521,257 +4521,239 @@
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="50"/>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="50"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="53"/>
+      <c r="AC34" s="53"/>
+      <c r="AD34" s="53"/>
+      <c r="AE34" s="53"/>
+      <c r="AF34" s="53"/>
+      <c r="AG34" s="53"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="50"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="50"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="53"/>
+      <c r="AD35" s="53"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="53"/>
+      <c r="AG35" s="53"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="50"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="50"/>
-      <c r="AE36" s="50"/>
-      <c r="AF36" s="50"/>
-      <c r="AG36" s="50"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="53"/>
+      <c r="AD36" s="53"/>
+      <c r="AE36" s="53"/>
+      <c r="AF36" s="53"/>
+      <c r="AG36" s="53"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="50"/>
-      <c r="AE37" s="50"/>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="50"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="53"/>
+      <c r="AC37" s="53"/>
+      <c r="AD37" s="53"/>
+      <c r="AE37" s="53"/>
+      <c r="AF37" s="53"/>
+      <c r="AG37" s="53"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="50"/>
-      <c r="AC38" s="50"/>
-      <c r="AD38" s="50"/>
-      <c r="AE38" s="50"/>
-      <c r="AF38" s="50"/>
-      <c r="AG38" s="50"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="53"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="53"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="53"/>
+      <c r="AG38" s="53"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="50"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="53"/>
+      <c r="AG39" s="53"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-      <c r="AA40" s="50"/>
-      <c r="AB40" s="50"/>
-      <c r="AC40" s="50"/>
-      <c r="AD40" s="50"/>
-      <c r="AE40" s="50"/>
-      <c r="AF40" s="50"/>
-      <c r="AG40" s="50"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="53"/>
+      <c r="AC40" s="53"/>
+      <c r="AD40" s="53"/>
+      <c r="AE40" s="53"/>
+      <c r="AF40" s="53"/>
+      <c r="AG40" s="53"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="50"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="53"/>
+      <c r="AE41" s="53"/>
+      <c r="AF41" s="53"/>
+      <c r="AG41" s="53"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="50"/>
-      <c r="AF42" s="50"/>
-      <c r="AG42" s="50"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="53"/>
+      <c r="AG42" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="K7:AG42"/>
@@ -4788,6 +4770,24 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F31EDFE-932F-7443-B081-4B1124154906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC1D91E-D852-4547-A34E-EA157747CF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="295">
   <si>
     <t>Index</t>
   </si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>TracesType</t>
-  </si>
-  <si>
-    <t>price</t>
   </si>
   <si>
     <t xml:space="preserve">Set to 'price'or 'yoy'. Price history of assets (including NLQ) will be plotted unchanged ('price') or as year on year change ('yoy'). </t>
@@ -1416,13 +1413,22 @@
     <t>yellow</t>
   </si>
   <si>
-    <t>TLT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chart showing the balance sheets of the different central banks (in USD). </t>
   </si>
   <si>
-    <t>TLT - high duration bond ETF</t>
+    <t>pull_latest_data</t>
+  </si>
+  <si>
+    <t>load_latest</t>
+  </si>
+  <si>
+    <t>Unaltered</t>
+  </si>
+  <si>
+    <t>Year on year % change</t>
+  </si>
+  <si>
+    <t>BTCUSD, INDEX</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1438,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1652,8 +1658,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1762,6 +1774,12 @@
         <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1814,7 +1832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1973,6 +1991,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2564,7 +2586,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2617,19 +2639,19 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H2" s="7">
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2637,23 +2659,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="H3" s="7">
-        <v>365</v>
+        <v>730</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2662,21 +2682,11 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="7">
-        <v>730</v>
-      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -2750,7 +2760,9 @@
       <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="56" t="s">
+        <v>291</v>
+      </c>
       <c r="C10" s="43" t="s">
         <v>26</v>
       </c>
@@ -2797,7 +2809,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="14">
-        <v>44440</v>
+        <v>44562</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>33</v>
@@ -2907,11 +2919,11 @@
       <c r="A20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>50</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
@@ -2924,13 +2936,13 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="36" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>53</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
@@ -2943,13 +2955,13 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2962,11 +2974,11 @@
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
@@ -2979,12 +2991,12 @@
     </row>
     <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="40"/>
       <c r="C24" s="40"/>
       <c r="D24" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
@@ -2992,13 +3004,13 @@
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -3007,13 +3019,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
@@ -3022,13 +3034,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
@@ -3037,13 +3049,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
@@ -3052,13 +3064,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
@@ -3067,13 +3079,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="36"/>
       <c r="E30" s="36"/>
@@ -3082,7 +3094,7 @@
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -3092,13 +3104,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -3107,13 +3119,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
@@ -3122,13 +3134,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -3137,13 +3149,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
@@ -3152,13 +3164,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
@@ -3167,13 +3179,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="34"/>
       <c r="E37" s="34"/>
@@ -3182,13 +3194,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="34"/>
@@ -3197,13 +3209,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
@@ -3266,7 +3278,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Dropdowns!$D$1:$D$3</xm:f>
@@ -3330,6 +3342,18 @@
           </x14:formula2>
           <xm:sqref>B17</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D569750B-8817-044E-9307-44A6C035291A}">
+          <x14:formula1>
+            <xm:f>Dropdowns!$K$3:$K$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4A4E49D9-1945-A44F-A952-E0E0B5EA30D5}">
+          <x14:formula1>
+            <xm:f>Dropdowns!$L$3:$L$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B20</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -3387,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>9</v>
@@ -3399,7 +3423,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -3413,7 +3437,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="4" t="s">
@@ -3437,20 +3461,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="H4" s="7">
         <v>730</v>
@@ -3465,16 +3489,16 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>1460</v>
@@ -3485,20 +3509,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -3516,7 +3540,7 @@
       <c r="G7" s="52"/>
       <c r="H7" s="9"/>
       <c r="K7" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L7" s="53"/>
       <c r="M7" s="53"/>
@@ -3546,7 +3570,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="36" t="s">
@@ -3584,7 +3608,7 @@
       <c r="A9" s="10"/>
       <c r="B9" s="25"/>
       <c r="C9" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
@@ -3660,7 +3684,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
@@ -3733,10 +3757,10 @@
         <v>32</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>107</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>108</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
@@ -3809,7 +3833,7 @@
         <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>38</v>
@@ -3887,7 +3911,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
@@ -3959,7 +3983,7 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
@@ -3991,13 +4015,13 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="36" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>53</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
@@ -4029,11 +4053,11 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
@@ -4065,12 +4089,12 @@
     </row>
     <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
       <c r="D22" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
@@ -4101,11 +4125,11 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
@@ -4137,11 +4161,11 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
@@ -4173,18 +4197,18 @@
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
       <c r="H25" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I25" s="50"/>
       <c r="K25" s="53"/>
@@ -4213,11 +4237,11 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
@@ -4251,7 +4275,7 @@
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -4286,11 +4310,11 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
@@ -4324,11 +4348,11 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
@@ -4362,13 +4386,13 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
@@ -4402,13 +4426,13 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -4442,11 +4466,11 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
@@ -4478,13 +4502,13 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
@@ -4516,13 +4540,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" s="34"/>
       <c r="E34" s="34"/>
@@ -4804,19 +4828,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D2:J150"/>
+  <dimension ref="D2:L150"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -4824,226 +4850,238 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="K3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I4" s="30" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I4" s="30" t="s">
+      <c r="J4" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="K4" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="L4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I5" s="30" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I5" s="30" t="s">
+      <c r="J5" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="J5" s="29" t="s">
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I6" s="30" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I6" s="30" t="s">
+      <c r="J6" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="J6" s="29" t="s">
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I7" s="30" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I7" s="30" t="s">
-        <v>123</v>
       </c>
       <c r="J7" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
       <c r="I8" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
       <c r="I9" s="30" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I10" s="30" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I10" s="30" t="s">
+      <c r="J10" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J10" s="30" t="s">
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I11" s="30" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I11" s="30" t="s">
+      <c r="J11" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J11" s="30" t="s">
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I12" s="30" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I12" s="30" t="s">
+      <c r="J12" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="J12" s="30" t="s">
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I13" s="30" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I13" s="30" t="s">
+      <c r="J13" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="J13" s="30" t="s">
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I14" s="30" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I14" s="30" t="s">
+      <c r="J14" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I15" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="J14" s="30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I15" s="30" t="s">
+      <c r="J15" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="J15" s="30" t="s">
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I16" s="30" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="I16" s="30" t="s">
+      <c r="J16" s="30" t="s">
         <v>137</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="17" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I17" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="30" t="s">
         <v>139</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I18" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="30" t="s">
         <v>141</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I19" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I20" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="30" t="s">
         <v>144</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I21" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" s="30" t="s">
         <v>146</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="22" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I22" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="30" t="s">
         <v>148</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I23" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="J23" s="30" t="s">
         <v>150</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="24" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I24" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="30" t="s">
         <v>152</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I25" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="30" t="s">
         <v>154</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I26" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="30" t="s">
         <v>156</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="27" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I27" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="J27" s="30" t="s">
         <v>158</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="28" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I28" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="J28" s="30" t="s">
         <v>160</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="29" spans="9:10" x14ac:dyDescent="0.2">
@@ -5051,567 +5089,567 @@
         <v>13</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I30" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" s="30" t="s">
         <v>163</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="31" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I31" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="J31" s="30" t="s">
         <v>165</v>
-      </c>
-      <c r="J31" s="30" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="32" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I32" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="J32" s="30" t="s">
         <v>167</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I33" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="J33" s="30" t="s">
         <v>169</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I34" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="J34" s="30" t="s">
         <v>171</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="35" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I35" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="J35" s="30" t="s">
         <v>173</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="36" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I36" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" s="30" t="s">
         <v>175</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="37" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I37" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="J37" s="30" t="s">
         <v>177</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="38" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I38" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="J38" s="30" t="s">
         <v>179</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="39" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I39" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="J39" s="30" t="s">
         <v>181</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="40" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I40" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I41" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I42" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I43" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I44" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I45" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I46" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I47" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I48" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I49" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I50" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I51" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I52" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I53" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I54" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I55" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I56" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I57" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I58" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I59" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I60" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I61" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I62" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I63" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I64" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I65" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I66" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I67" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I68" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I69" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I70" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I71" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I72" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I73" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I74" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I75" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I76" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I77" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I78" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I79" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I80" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I81" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I82" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I83" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I84" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I85" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I86" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I87" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I88" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I89" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I90" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I91" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I92" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I93" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I94" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I95" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I96" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I97" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I98" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I99" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I100" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I101" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I102" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I103" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I104" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I105" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I106" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I107" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I108" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I109" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I110" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I111" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I112" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="113" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I113" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I114" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="115" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I115" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="116" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I116" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="117" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I117" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I118" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I119" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="120" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I120" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="121" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I121" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="122" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I122" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I123" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I124" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I125" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="126" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I126" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I127" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="128" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I128" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="129" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I129" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="130" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I130" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I131" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I132" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I133" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I134" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I135" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="9:9" x14ac:dyDescent="0.2">
@@ -5621,72 +5659,72 @@
     </row>
     <row r="137" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I137" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I138" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="139" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I139" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I140" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I141" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I142" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I143" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I144" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I145" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I146" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="147" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I147" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I148" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I149" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="150" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I150" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC1D91E-D852-4547-A34E-EA157747CF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341BC65E-457D-5249-A059-2BAE8674F3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="297">
   <si>
     <t>Index</t>
   </si>
@@ -1429,6 +1429,12 @@
   </si>
   <si>
     <t>BTCUSD, INDEX</t>
+  </si>
+  <si>
+    <t>DX-Y.NYB</t>
+  </si>
+  <si>
+    <t>DXY</t>
   </si>
 </sst>
 </file>
@@ -1922,37 +1928,24 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1963,24 +1956,35 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1991,10 +1995,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2586,7 +2592,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2651,7 +2657,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="7">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2673,7 +2679,7 @@
         <v>237</v>
       </c>
       <c r="H3" s="7">
-        <v>730</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2682,11 +2688,21 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="7">
+        <v>730</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -2713,25 +2729,25 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
         <v>22</v>
       </c>
@@ -2747,12 +2763,12 @@
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
@@ -2760,15 +2776,15 @@
       <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
@@ -2779,29 +2795,29 @@
       <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="34" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2855,13 +2871,13 @@
       <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
@@ -2870,14 +2886,14 @@
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -2919,7 +2935,7 @@
       <c r="A20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="31" t="s">
         <v>292</v>
       </c>
       <c r="C20" s="36" t="s">
@@ -2990,17 +3006,17 @@
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="34" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
@@ -3009,13 +3025,13 @@
       <c r="B25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -3093,14 +3109,14 @@
       <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
@@ -3109,13 +3125,13 @@
       <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
@@ -3124,13 +3140,13 @@
       <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
@@ -3139,13 +3155,13 @@
       <c r="B34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -3154,13 +3170,13 @@
       <c r="B35" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
@@ -3169,13 +3185,13 @@
       <c r="B36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
@@ -3184,13 +3200,13 @@
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -3199,13 +3215,13 @@
       <c r="B38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
@@ -3214,52 +3230,52 @@
       <c r="B39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3527,11 +3543,11 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="52" t="s">
         <v>20</v>
       </c>
@@ -3569,10 +3585,10 @@
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
         <v>22</v>
       </c>
@@ -3607,12 +3623,12 @@
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="K9" s="53"/>
@@ -3644,12 +3660,12 @@
         <v>25</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="K10" s="53"/>
@@ -3716,17 +3732,17 @@
       <c r="AG11" s="53"/>
     </row>
     <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="34" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="9"/>
       <c r="K12" s="53"/>
       <c r="L12" s="53"/>
@@ -4088,17 +4104,17 @@
       <c r="AG21" s="53"/>
     </row>
     <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="34" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="K22" s="53"/>
       <c r="L22" s="53"/>
       <c r="M22" s="53"/>
@@ -4207,10 +4223,10 @@
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="I25" s="50"/>
+      <c r="I25" s="56"/>
       <c r="K25" s="53"/>
       <c r="L25" s="53"/>
       <c r="M25" s="53"/>
@@ -4247,8 +4263,8 @@
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
       <c r="K26" s="53"/>
       <c r="L26" s="53"/>
       <c r="M26" s="53"/>
@@ -4274,16 +4290,16 @@
       <c r="AG26" s="53"/>
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="M27" s="53"/>
@@ -4313,15 +4329,15 @@
         <v>72</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
       <c r="K28" s="53"/>
       <c r="L28" s="53"/>
       <c r="M28" s="53"/>
@@ -4351,15 +4367,15 @@
         <v>74</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
       <c r="K29" s="53"/>
       <c r="L29" s="53"/>
       <c r="M29" s="53"/>
@@ -4391,15 +4407,15 @@
       <c r="B30" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
       <c r="K30" s="53"/>
       <c r="L30" s="53"/>
       <c r="M30" s="53"/>
@@ -4431,15 +4447,15 @@
       <c r="B31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
       <c r="K31" s="53"/>
       <c r="L31" s="53"/>
       <c r="M31" s="53"/>
@@ -4469,13 +4485,13 @@
         <v>80</v>
       </c>
       <c r="B32" s="28"/>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
       <c r="K32" s="53"/>
       <c r="L32" s="53"/>
       <c r="M32" s="53"/>
@@ -4507,13 +4523,13 @@
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
       <c r="K33" s="53"/>
       <c r="L33" s="53"/>
       <c r="M33" s="53"/>
@@ -4545,13 +4561,13 @@
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
       <c r="K34" s="53"/>
       <c r="L34" s="53"/>
       <c r="M34" s="53"/>
@@ -4778,6 +4794,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="K7:AG42"/>
@@ -4794,24 +4828,6 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -4885,7 +4901,7 @@
       <c r="J4" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="32" t="s">
         <v>291</v>
       </c>
       <c r="L4" t="s">

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60A388E-0DC8-D943-AB41-AAB1D150384F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF5874B-3E3D-F944-80A7-2A2C7EBBB4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1818,45 +1818,8 @@
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1882,9 +1845,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1950,10 +1910,59 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1964,15 +1973,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2563,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2581,673 +2581,673 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="7">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="7">
         <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="7">
         <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="22"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="22"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="22"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="14">
         <v>44197</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="4">
         <v>20</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="37" t="s">
+      <c r="C32" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="37" t="s">
+      <c r="C33" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="19" t="s">
+      <c r="C37" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="19" t="s">
+      <c r="C38" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3375,1421 +3375,1403 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="7">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="7">
         <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="7">
         <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="7">
         <v>1460</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="49" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="22"/>
-      <c r="K7" s="50" t="s">
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="9"/>
+      <c r="K7" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="22"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="9"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
     </row>
     <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="22"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="9"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
     </row>
     <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="22"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="9"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="53"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="53"/>
+      <c r="AG16" s="53"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="53"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="53"/>
+      <c r="AF18" s="53"/>
+      <c r="AG18" s="53"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="53"/>
+      <c r="AE19" s="53"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="53"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="53"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="53"/>
+      <c r="AE21" s="53"/>
+      <c r="AF21" s="53"/>
+      <c r="AG21" s="53"/>
     </row>
     <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="53"/>
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="53" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="53"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="53"/>
+      <c r="AE25" s="53"/>
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="53"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="53"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="53"/>
+      <c r="AG26" s="53"/>
     </row>
     <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="46" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="53"/>
+      <c r="AG28" s="53"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="50"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="53"/>
+      <c r="AG30" s="53"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="55" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="50"/>
-      <c r="AG32" s="50"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="53"/>
+      <c r="AC32" s="53"/>
+      <c r="AD32" s="53"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="53"/>
+      <c r="AG32" s="53"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="50"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="53"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="50"/>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="50"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="53"/>
+      <c r="AC34" s="53"/>
+      <c r="AD34" s="53"/>
+      <c r="AE34" s="53"/>
+      <c r="AF34" s="53"/>
+      <c r="AG34" s="53"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="50"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="50"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="53"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="53"/>
+      <c r="AD35" s="53"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="53"/>
+      <c r="AG35" s="53"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="50"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="50"/>
-      <c r="AE36" s="50"/>
-      <c r="AF36" s="50"/>
-      <c r="AG36" s="50"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="53"/>
+      <c r="AD36" s="53"/>
+      <c r="AE36" s="53"/>
+      <c r="AF36" s="53"/>
+      <c r="AG36" s="53"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="50"/>
-      <c r="AE37" s="50"/>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="50"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="53"/>
+      <c r="AC37" s="53"/>
+      <c r="AD37" s="53"/>
+      <c r="AE37" s="53"/>
+      <c r="AF37" s="53"/>
+      <c r="AG37" s="53"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="50"/>
-      <c r="AC38" s="50"/>
-      <c r="AD38" s="50"/>
-      <c r="AE38" s="50"/>
-      <c r="AF38" s="50"/>
-      <c r="AG38" s="50"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="53"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="53"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="53"/>
+      <c r="AG38" s="53"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="50"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="53"/>
+      <c r="AG39" s="53"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-      <c r="AA40" s="50"/>
-      <c r="AB40" s="50"/>
-      <c r="AC40" s="50"/>
-      <c r="AD40" s="50"/>
-      <c r="AE40" s="50"/>
-      <c r="AF40" s="50"/>
-      <c r="AG40" s="50"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="53"/>
+      <c r="AC40" s="53"/>
+      <c r="AD40" s="53"/>
+      <c r="AE40" s="53"/>
+      <c r="AF40" s="53"/>
+      <c r="AG40" s="53"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="50"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="53"/>
+      <c r="AE41" s="53"/>
+      <c r="AF41" s="53"/>
+      <c r="AG41" s="53"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="50"/>
-      <c r="AF42" s="50"/>
-      <c r="AG42" s="50"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="53"/>
+      <c r="AG42" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="K7:AG42"/>
@@ -4806,6 +4788,24 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -4846,8 +4846,8 @@
       <c r="F2" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
@@ -4859,10 +4859,10 @@
       <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="29" t="s">
         <v>122</v>
       </c>
       <c r="K3" t="s">
@@ -4873,13 +4873,13 @@
       </c>
     </row>
     <row r="4" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="31" t="s">
         <v>125</v>
       </c>
       <c r="L4" t="s">
@@ -4887,837 +4887,837 @@
       </c>
     </row>
     <row r="5" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="29" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="29" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="29" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="30" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="30" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="30" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="30" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="14" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="30" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="30" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="30" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="J17" s="44" t="s">
+      <c r="J17" s="30" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="30" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="19" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="30" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="30" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="21" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="J21" s="44" t="s">
+      <c r="J21" s="30" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="22" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="J22" s="44" t="s">
+      <c r="J22" s="30" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="23" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="J23" s="44" t="s">
+      <c r="J23" s="30" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="24" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="J24" s="44" t="s">
+      <c r="J24" s="30" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="25" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="J25" s="44" t="s">
+      <c r="J25" s="30" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="26" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="J26" s="44" t="s">
+      <c r="J26" s="30" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="27" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="J27" s="44" t="s">
+      <c r="J27" s="30" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="28" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I28" s="44" t="s">
+      <c r="I28" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="J28" s="44" t="s">
+      <c r="J28" s="30" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="29" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I29" s="44" t="s">
+      <c r="I29" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="J29" s="44" t="s">
+      <c r="J29" s="30" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="30" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I30" s="44" t="s">
+      <c r="I30" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="J30" s="44" t="s">
+      <c r="J30" s="30" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="31" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I31" s="44" t="s">
+      <c r="I31" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="J31" s="44" t="s">
+      <c r="J31" s="30" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="32" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I32" s="44" t="s">
+      <c r="I32" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="J32" s="44" t="s">
+      <c r="J32" s="30" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="J33" s="44" t="s">
+      <c r="J33" s="30" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I34" s="44" t="s">
+      <c r="I34" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="J34" s="44" t="s">
+      <c r="J34" s="30" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="35" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I35" s="44" t="s">
+      <c r="I35" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="J35" s="44" t="s">
+      <c r="J35" s="30" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="36" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I36" s="44" t="s">
+      <c r="I36" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="J36" s="44" t="s">
+      <c r="J36" s="30" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="37" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I37" s="44" t="s">
+      <c r="I37" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="J37" s="44" t="s">
+      <c r="J37" s="30" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="38" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I38" s="44" t="s">
+      <c r="I38" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="44" t="s">
+      <c r="J38" s="30" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="39" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="J39" s="44" t="s">
+      <c r="J39" s="30" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="40" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="30" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="41" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I41" s="44" t="s">
+      <c r="I41" s="30" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="42" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I42" s="44" t="s">
+      <c r="I42" s="30" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="43" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I43" s="44" t="s">
+      <c r="I43" s="30" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="44" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I44" s="44" t="s">
+      <c r="I44" s="30" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="45" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I45" s="44" t="s">
+      <c r="I45" s="30" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="46" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I46" s="44" t="s">
+      <c r="I46" s="30" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="47" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I47" s="44" t="s">
+      <c r="I47" s="30" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="48" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I48" s="44" t="s">
+      <c r="I48" s="30" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="44" t="s">
+      <c r="I49" s="30" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="50" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="44" t="s">
+      <c r="I50" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="44" t="s">
+      <c r="I51" s="30" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="44" t="s">
+      <c r="I52" s="30" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="44" t="s">
+      <c r="I53" s="30" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I54" s="44" t="s">
+      <c r="I54" s="30" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="44" t="s">
+      <c r="I55" s="30" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="44" t="s">
+      <c r="I56" s="30" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="44" t="s">
+      <c r="I57" s="30" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I58" s="44" t="s">
+      <c r="I58" s="30" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="44" t="s">
+      <c r="I59" s="30" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I60" s="44" t="s">
+      <c r="I60" s="30" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="61" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I61" s="44" t="s">
+      <c r="I61" s="30" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I62" s="44" t="s">
+      <c r="I62" s="30" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I63" s="44" t="s">
+      <c r="I63" s="30" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I64" s="44" t="s">
+      <c r="I64" s="30" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I65" s="44" t="s">
+      <c r="I65" s="30" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I66" s="44" t="s">
+      <c r="I66" s="30" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I67" s="44" t="s">
+      <c r="I67" s="30" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I68" s="44" t="s">
+      <c r="I68" s="30" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I69" s="44" t="s">
+      <c r="I69" s="30" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I70" s="44" t="s">
+      <c r="I70" s="30" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I71" s="44" t="s">
+      <c r="I71" s="30" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I72" s="44" t="s">
+      <c r="I72" s="30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I73" s="44" t="s">
+      <c r="I73" s="30" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I74" s="44" t="s">
+      <c r="I74" s="30" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I75" s="44" t="s">
+      <c r="I75" s="30" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I76" s="44" t="s">
+      <c r="I76" s="30" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I77" s="44" t="s">
+      <c r="I77" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I78" s="44" t="s">
+      <c r="I78" s="30" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="44" t="s">
+      <c r="I79" s="30" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I80" s="44" t="s">
+      <c r="I80" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I81" s="44" t="s">
+      <c r="I81" s="30" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="82" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I82" s="44" t="s">
+      <c r="I82" s="30" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I83" s="44" t="s">
+      <c r="I83" s="30" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="84" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I84" s="44" t="s">
+      <c r="I84" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I85" s="44" t="s">
+      <c r="I85" s="30" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="86" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I86" s="44" t="s">
+      <c r="I86" s="30" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="87" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I87" s="44" t="s">
+      <c r="I87" s="30" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="88" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I88" s="44" t="s">
+      <c r="I88" s="30" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="89" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I89" s="44" t="s">
+      <c r="I89" s="30" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="90" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I90" s="44" t="s">
+      <c r="I90" s="30" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="91" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I91" s="44" t="s">
+      <c r="I91" s="30" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="92" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I92" s="44" t="s">
+      <c r="I92" s="30" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I93" s="44" t="s">
+      <c r="I93" s="30" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="94" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I94" s="44" t="s">
+      <c r="I94" s="30" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="95" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I95" s="44" t="s">
+      <c r="I95" s="30" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="96" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I96" s="44" t="s">
+      <c r="I96" s="30" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I97" s="44" t="s">
+      <c r="I97" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I98" s="44" t="s">
+      <c r="I98" s="30" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I99" s="44" t="s">
+      <c r="I99" s="30" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I100" s="44" t="s">
+      <c r="I100" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I101" s="44" t="s">
+      <c r="I101" s="30" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I102" s="44" t="s">
+      <c r="I102" s="30" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="103" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I103" s="44" t="s">
+      <c r="I103" s="30" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="104" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I104" s="44" t="s">
+      <c r="I104" s="30" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="105" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I105" s="44" t="s">
+      <c r="I105" s="30" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="106" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I106" s="44" t="s">
+      <c r="I106" s="30" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="107" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I107" s="44" t="s">
+      <c r="I107" s="30" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="108" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I108" s="44" t="s">
+      <c r="I108" s="30" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="109" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I109" s="44" t="s">
+      <c r="I109" s="30" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="110" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I110" s="44" t="s">
+      <c r="I110" s="30" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="111" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I111" s="44" t="s">
+      <c r="I111" s="30" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="112" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I112" s="44" t="s">
+      <c r="I112" s="30" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="113" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I113" s="44" t="s">
+      <c r="I113" s="30" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="114" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I114" s="44" t="s">
+      <c r="I114" s="30" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="115" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I115" s="44" t="s">
+      <c r="I115" s="30" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="116" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I116" s="44" t="s">
+      <c r="I116" s="30" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="117" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I117" s="44" t="s">
+      <c r="I117" s="30" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="118" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I118" s="44" t="s">
+      <c r="I118" s="30" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="119" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I119" s="44" t="s">
+      <c r="I119" s="30" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="120" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I120" s="44" t="s">
+      <c r="I120" s="30" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="121" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I121" s="44" t="s">
+      <c r="I121" s="30" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="122" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I122" s="44" t="s">
+      <c r="I122" s="30" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="123" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I123" s="44" t="s">
+      <c r="I123" s="30" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="124" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I124" s="44" t="s">
+      <c r="I124" s="30" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="125" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I125" s="44" t="s">
+      <c r="I125" s="30" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="126" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I126" s="44" t="s">
+      <c r="I126" s="30" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="127" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I127" s="44" t="s">
+      <c r="I127" s="30" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="128" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I128" s="44" t="s">
+      <c r="I128" s="30" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="129" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I129" s="44" t="s">
+      <c r="I129" s="30" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="130" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I130" s="44" t="s">
+      <c r="I130" s="30" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="131" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I131" s="44" t="s">
+      <c r="I131" s="30" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="132" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I132" s="44" t="s">
+      <c r="I132" s="30" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="133" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I133" s="44" t="s">
+      <c r="I133" s="30" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="134" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I134" s="44" t="s">
+      <c r="I134" s="30" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="135" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I135" s="44" t="s">
+      <c r="I135" s="30" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="136" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I136" s="44" t="s">
+      <c r="I136" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="137" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I137" s="44" t="s">
+      <c r="I137" s="30" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="138" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I138" s="44" t="s">
+      <c r="I138" s="30" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="139" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I139" s="44" t="s">
+      <c r="I139" s="30" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="140" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I140" s="44" t="s">
+      <c r="I140" s="30" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="141" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I141" s="44" t="s">
+      <c r="I141" s="30" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="142" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I142" s="44" t="s">
+      <c r="I142" s="30" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="143" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I143" s="44" t="s">
+      <c r="I143" s="30" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="144" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I144" s="44" t="s">
+      <c r="I144" s="30" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="145" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I145" s="44" t="s">
+      <c r="I145" s="30" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="146" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I146" s="44" t="s">
+      <c r="I146" s="30" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="147" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I147" s="44" t="s">
+      <c r="I147" s="30" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="148" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I148" s="44" t="s">
+      <c r="I148" s="30" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="149" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I149" s="44" t="s">
+      <c r="I149" s="30" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="150" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I150" s="44" t="s">
+      <c r="I150" s="30" t="s">
         <v>296</v>
       </c>
     </row>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/NetLiquidity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF5874B-3E3D-F944-80A7-2A2C7EBBB4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734480C6-5C8B-DB4B-82BE-66F65A772813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,19 @@
     <sheet name="Information &amp; Examples" sheetId="2" r:id="rId2"/>
     <sheet name="Dropdowns" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -27,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="301">
   <si>
     <t>Index</t>
   </si>
@@ -71,22 +82,10 @@
     <t>black</t>
   </si>
   <si>
-    <t>BTCUSD, INDEX</t>
-  </si>
-  <si>
     <t>tv</t>
   </si>
   <si>
-    <t>Bitcoin</t>
-  </si>
-  <si>
     <t>orangered</t>
-  </si>
-  <si>
-    <t>DX-Y.NYB</t>
-  </si>
-  <si>
-    <t>DXY</t>
   </si>
   <si>
     <t>green</t>
@@ -1425,14 +1424,35 @@
   <si>
     <t>yellow</t>
   </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>U.S Federal Government Additions</t>
+  </si>
+  <si>
+    <t>Include_Deficit</t>
+  </si>
+  <si>
+    <t>Add the U.S federal government monthly (resampled to daily) deficit/surplus (Ha!) to the liquidity index. Fred series: MTSDS133FMS</t>
+  </si>
+  <si>
+    <t>BTC-USD</t>
+  </si>
+  <si>
+    <t>Bitty</t>
+  </si>
+  <si>
+    <t>S &amp; P 500</t>
+  </si>
+  <si>
+    <t>Include_BTFP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1655,7 +1675,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1764,8 +1784,14 @@
         <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1812,11 +1838,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1853,9 +1905,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1910,23 +1959,45 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2265,9 +2336,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2305,7 +2376,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2411,7 +2482,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2553,7 +2624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2561,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2610,23 +2681,21 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>297</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="7">
         <v>180</v>
@@ -2637,18 +2706,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>299</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3" s="7">
         <v>365</v>
@@ -2660,18 +2731,10 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="7">
         <v>730</v>
       </c>
@@ -2701,517 +2764,572 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="A7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+        <v>22</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+        <v>25</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-    </row>
-    <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="14">
-        <v>44197</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+        <v>32</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+        <v>34</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C16" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="4">
+        <v>50</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="4">
-        <v>20</v>
-      </c>
-      <c r="C18" s="35" t="s">
+      <c r="B20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="C20" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="35" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C21" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>59</v>
+      <c r="C22" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="35" t="s">
+      <c r="B25" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="33" t="s">
+      <c r="B29" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="38" t="s">
+      <c r="B30" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="35" t="s">
+      <c r="B31" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="35" t="s">
+      <c r="B32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="35" t="s">
+      <c r="B33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+    </row>
+    <row r="34" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="35" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
+      <c r="B35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="35" t="s">
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-    </row>
-    <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="B36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B37" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="C40" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="33" t="s">
+      <c r="C41" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C42" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="38">
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="B8:C8"/>
@@ -3231,34 +3349,26 @@
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="C25:G25"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="A34:F34"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>367</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>B13</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -3274,7 +3384,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B9 B22 B25:B30 B32:B39</xm:sqref>
+          <xm:sqref>B9 B22 B35:B42 B25:B27 B29:B33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
@@ -3405,22 +3515,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H2" s="7">
         <v>180</v>
@@ -3431,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="4" t="s">
@@ -3455,20 +3565,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>730</v>
@@ -3483,16 +3593,16 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1460</v>
@@ -3503,1272 +3613,1272 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
+      <c r="A7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="9"/>
-      <c r="K7" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
+      <c r="K7" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="9"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="C10" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
     </row>
     <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="9"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="60"/>
+    </row>
+    <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="9"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-    </row>
-    <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="9"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="53"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="60"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+        <v>32</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="53"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="60"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="C14" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="53"/>
-      <c r="AE14" s="53"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="53"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="60"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="60"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="53"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="53"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="60"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
-      <c r="AE16" s="53"/>
-      <c r="AF16" s="53"/>
-      <c r="AG16" s="53"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="B17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="60"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="60"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="60"/>
+    </row>
+    <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="60"/>
+      <c r="AG22" s="60"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="60"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="60"/>
+      <c r="AG24" s="60"/>
+    </row>
+    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="57"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="60"/>
+    </row>
+    <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="60"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="60"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="60"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="60"/>
+      <c r="AG28" s="60"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="60"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="60"/>
+      <c r="AB31" s="60"/>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+      <c r="AF31" s="60"/>
+      <c r="AG31" s="60"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-      <c r="AE17" s="53"/>
-      <c r="AF17" s="53"/>
-      <c r="AG17" s="53"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="53"/>
-      <c r="AC18" s="53"/>
-      <c r="AD18" s="53"/>
-      <c r="AE18" s="53"/>
-      <c r="AF18" s="53"/>
-      <c r="AG18" s="53"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="53"/>
-      <c r="AE19" s="53"/>
-      <c r="AF19" s="53"/>
-      <c r="AG19" s="53"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="53"/>
-      <c r="AE20" s="53"/>
-      <c r="AF20" s="53"/>
-      <c r="AG20" s="53"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="53"/>
-      <c r="AF21" s="53"/>
-      <c r="AG21" s="53"/>
-    </row>
-    <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="53"/>
-      <c r="AE22" s="53"/>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="53"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="53"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="53"/>
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="53"/>
-    </row>
-    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" s="50"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="53"/>
-      <c r="AD25" s="53"/>
-      <c r="AE25" s="53"/>
-      <c r="AF25" s="53"/>
-      <c r="AG25" s="53"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="53"/>
-      <c r="AD26" s="53"/>
-      <c r="AE26" s="53"/>
-      <c r="AF26" s="53"/>
-      <c r="AG26" s="53"/>
-    </row>
-    <row r="27" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="53"/>
-      <c r="AD27" s="53"/>
-      <c r="AE27" s="53"/>
-      <c r="AF27" s="53"/>
-      <c r="AG27" s="53"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="53"/>
-      <c r="AC28" s="53"/>
-      <c r="AD28" s="53"/>
-      <c r="AE28" s="53"/>
-      <c r="AF28" s="53"/>
-      <c r="AG28" s="53"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="53"/>
-      <c r="AC29" s="53"/>
-      <c r="AD29" s="53"/>
-      <c r="AE29" s="53"/>
-      <c r="AF29" s="53"/>
-      <c r="AG29" s="53"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="53"/>
-      <c r="AD30" s="53"/>
-      <c r="AE30" s="53"/>
-      <c r="AF30" s="53"/>
-      <c r="AG30" s="53"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="60"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="60"/>
+      <c r="AE32" s="60"/>
+      <c r="AF32" s="60"/>
+      <c r="AG32" s="60"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
         <v>83</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="53"/>
-      <c r="AD31" s="53"/>
-      <c r="AE31" s="53"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="53"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="53"/>
-      <c r="AC32" s="53"/>
-      <c r="AD32" s="53"/>
-      <c r="AE32" s="53"/>
-      <c r="AF32" s="53"/>
-      <c r="AG32" s="53"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
-        <v>87</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="53"/>
-      <c r="AD33" s="53"/>
-      <c r="AE33" s="53"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="53"/>
+      <c r="C33" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="60"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
+      <c r="AF33" s="60"/>
+      <c r="AG33" s="60"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
-        <v>89</v>
+      <c r="A34" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="53"/>
-      <c r="AC34" s="53"/>
-      <c r="AD34" s="53"/>
-      <c r="AE34" s="53"/>
-      <c r="AF34" s="53"/>
-      <c r="AG34" s="53"/>
+      <c r="C34" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+      <c r="AF34" s="60"/>
+      <c r="AG34" s="60"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="53"/>
-      <c r="AC35" s="53"/>
-      <c r="AD35" s="53"/>
-      <c r="AE35" s="53"/>
-      <c r="AF35" s="53"/>
-      <c r="AG35" s="53"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+      <c r="AF35" s="60"/>
+      <c r="AG35" s="60"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="53"/>
-      <c r="AD36" s="53"/>
-      <c r="AE36" s="53"/>
-      <c r="AF36" s="53"/>
-      <c r="AG36" s="53"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="60"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="60"/>
+      <c r="AG36" s="60"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="53"/>
-      <c r="AD37" s="53"/>
-      <c r="AE37" s="53"/>
-      <c r="AF37" s="53"/>
-      <c r="AG37" s="53"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="60"/>
+      <c r="AE37" s="60"/>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="60"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="53"/>
-      <c r="AE38" s="53"/>
-      <c r="AF38" s="53"/>
-      <c r="AG38" s="53"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="60"/>
+      <c r="AE38" s="60"/>
+      <c r="AF38" s="60"/>
+      <c r="AG38" s="60"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AE39" s="53"/>
-      <c r="AF39" s="53"/>
-      <c r="AG39" s="53"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="60"/>
+      <c r="AE39" s="60"/>
+      <c r="AF39" s="60"/>
+      <c r="AG39" s="60"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="53"/>
-      <c r="AD40" s="53"/>
-      <c r="AE40" s="53"/>
-      <c r="AF40" s="53"/>
-      <c r="AG40" s="53"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="60"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="60"/>
+      <c r="AB40" s="60"/>
+      <c r="AC40" s="60"/>
+      <c r="AD40" s="60"/>
+      <c r="AE40" s="60"/>
+      <c r="AF40" s="60"/>
+      <c r="AG40" s="60"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="53"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="53"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="53"/>
-      <c r="AD41" s="53"/>
-      <c r="AE41" s="53"/>
-      <c r="AF41" s="53"/>
-      <c r="AG41" s="53"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="60"/>
+      <c r="X41" s="60"/>
+      <c r="Y41" s="60"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="60"/>
+      <c r="AB41" s="60"/>
+      <c r="AC41" s="60"/>
+      <c r="AD41" s="60"/>
+      <c r="AE41" s="60"/>
+      <c r="AF41" s="60"/>
+      <c r="AG41" s="60"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="53"/>
-      <c r="AD42" s="53"/>
-      <c r="AE42" s="53"/>
-      <c r="AF42" s="53"/>
-      <c r="AG42" s="53"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="60"/>
+      <c r="AE42" s="60"/>
+      <c r="AF42" s="60"/>
+      <c r="AG42" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -4838,887 +4948,887 @@
   <sheetData>
     <row r="2" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+        <v>110</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I4" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="30" t="s">
+      <c r="K4" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="L4" t="s">
         <v>122</v>
       </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I4" s="30" t="s">
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I5" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J5" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="31" t="s">
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I6" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="L4" t="s">
+      <c r="J6" s="28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I5" s="30" t="s">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I7" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J7" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I8" s="29" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I6" s="30" t="s">
+      <c r="J8" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="29" t="s">
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I10" s="29" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I7" s="30" t="s">
+      <c r="J10" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="J7" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I8" s="30" t="s">
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I11" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J11" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I12" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I13" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I14" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I15" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I16" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I17" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I18" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I19" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I20" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I21" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I22" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I23" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I24" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I25" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I26" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I27" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I28" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I29" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I30" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I31" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I32" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I33" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I34" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I35" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I36" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I37" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="J37" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I38" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I39" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="J39" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I40" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I41" s="29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I42" s="29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I43" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I44" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I45" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I46" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I47" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I48" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I49" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I54" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I55" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I56" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I57" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I58" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I59" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I60" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I61" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I62" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I63" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I64" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I65" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I66" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I67" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I68" s="29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I69" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I70" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I71" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I72" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I73" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I74" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I75" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I76" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I77" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I78" s="29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I79" s="29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I80" s="29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I81" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I82" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I83" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I84" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I85" s="29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I86" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I87" s="29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I88" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I89" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I90" s="29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I91" s="29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I92" s="29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I93" s="29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I94" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I95" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I96" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I97" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I9" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I10" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I11" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I12" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I13" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I14" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I15" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="I16" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I17" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I18" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I19" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I20" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I21" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I22" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I23" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I24" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I25" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I26" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I27" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I28" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I29" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="J29" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I30" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I31" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="J31" s="30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I32" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I33" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I34" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I35" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I36" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I37" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I38" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I39" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I40" s="30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I41" s="30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I42" s="30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I43" s="30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I44" s="30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I45" s="30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I46" s="30" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I47" s="30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I48" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I54" s="30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I58" s="30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="30" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I60" s="30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I61" s="30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I62" s="30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I63" s="30" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I64" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I65" s="30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I66" s="30" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I67" s="30" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I68" s="30" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I69" s="30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I70" s="30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I71" s="30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I72" s="30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I73" s="30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I74" s="30" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I75" s="30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I76" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I77" s="30" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I78" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I80" s="30" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I81" s="30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I82" s="30" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I83" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I84" s="30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I85" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I86" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I87" s="30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I88" s="30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I89" s="30" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I90" s="30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I91" s="30" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I92" s="30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I93" s="30" t="s">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I98" s="29" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I94" s="30" t="s">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I99" s="29" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I95" s="30" t="s">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I100" s="29" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I96" s="30" t="s">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I101" s="29" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I97" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I98" s="30" t="s">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I102" s="29" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I99" s="30" t="s">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I103" s="29" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I100" s="30" t="s">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I104" s="29" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I101" s="30" t="s">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I105" s="29" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I102" s="30" t="s">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I106" s="29" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I103" s="30" t="s">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I107" s="29" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I104" s="30" t="s">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I108" s="29" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I105" s="30" t="s">
+    <row r="109" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I109" s="29" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I106" s="30" t="s">
+    <row r="110" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I110" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I111" s="29" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I107" s="30" t="s">
+    <row r="112" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I112" s="29" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I108" s="30" t="s">
+    <row r="113" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I113" s="29" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I109" s="30" t="s">
+    <row r="114" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I114" s="29" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I110" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I111" s="30" t="s">
+    <row r="115" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I115" s="29" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I112" s="30" t="s">
+    <row r="116" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I116" s="29" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I113" s="30" t="s">
+    <row r="117" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I117" s="29" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I114" s="30" t="s">
+    <row r="118" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I118" s="29" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I115" s="30" t="s">
+    <row r="119" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I119" s="29" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I116" s="30" t="s">
+    <row r="120" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I120" s="29" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I117" s="30" t="s">
+    <row r="121" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I121" s="29" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I118" s="30" t="s">
+    <row r="122" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I122" s="29" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I119" s="30" t="s">
+    <row r="123" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I123" s="29" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I120" s="30" t="s">
+    <row r="124" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I124" s="29" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I121" s="30" t="s">
+    <row r="125" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I125" s="29" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I122" s="30" t="s">
+    <row r="126" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I126" s="29" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I123" s="30" t="s">
+    <row r="127" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I127" s="29" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I124" s="30" t="s">
+    <row r="128" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I128" s="29" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I125" s="30" t="s">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I129" s="29" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I126" s="30" t="s">
+    <row r="130" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I130" s="29" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I127" s="30" t="s">
+    <row r="131" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I131" s="29" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I128" s="30" t="s">
+    <row r="132" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I132" s="29" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I129" s="30" t="s">
+    <row r="133" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I133" s="29" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I130" s="30" t="s">
+    <row r="134" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I134" s="29" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I131" s="30" t="s">
+    <row r="135" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I135" s="29" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I132" s="30" t="s">
+    <row r="136" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I136" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I137" s="29" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I133" s="30" t="s">
+    <row r="138" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I138" s="29" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I134" s="30" t="s">
+    <row r="139" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I139" s="29" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I135" s="30" t="s">
+    <row r="140" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I140" s="29" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I136" s="30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I137" s="30" t="s">
+    <row r="141" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I141" s="29" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I138" s="30" t="s">
+    <row r="142" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I142" s="29" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I139" s="30" t="s">
+    <row r="143" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I143" s="29" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I140" s="30" t="s">
+    <row r="144" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I144" s="29" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I141" s="30" t="s">
+    <row r="145" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I145" s="29" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I142" s="30" t="s">
+    <row r="146" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I146" s="29" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I143" s="30" t="s">
+    <row r="147" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I147" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I144" s="30" t="s">
+    <row r="148" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I148" s="29" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I145" s="30" t="s">
+    <row r="149" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I149" s="29" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I146" s="30" t="s">
+    <row r="150" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I150" s="29" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I147" s="30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I148" s="30" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I149" s="30" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I150" s="30" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/NetLiquidity_InputParams.xlsx
+++ b/NetLiquidity/NetLiquidity_InputParams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesbishop/Documents/Python/Bootleg_Macro/NetLiquidity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\Code\Bootleg_Macro\NetLiquidity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734480C6-5C8B-DB4B-82BE-66F65A772813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76829B95-24B8-450A-8BC3-92EC32D1A347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="305">
   <si>
     <t>Index</t>
   </si>
@@ -1448,12 +1448,24 @@
   <si>
     <t>Include_BTFP</t>
   </si>
+  <si>
+    <t>BTFP</t>
+  </si>
+  <si>
+    <t>Fed_Deficit</t>
+  </si>
+  <si>
+    <t>Show additional chart of BTFP balance.</t>
+  </si>
+  <si>
+    <t>Show chart of Fed deficit (not active)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1674,6 +1686,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -1868,7 +1887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2044,6 +2063,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2632,26 +2663,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="30.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2677,7 +2708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2701,7 +2732,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2725,7 +2756,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2739,7 +2770,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2751,7 +2782,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2763,7 +2794,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="22.5" customHeight="1">
       <c r="A7" s="52" t="s">
         <v>17</v>
       </c>
@@ -2777,7 +2808,7 @@
       <c r="G7" s="53"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -2791,7 +2822,7 @@
       <c r="G8" s="43"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -2807,7 +2838,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
@@ -2823,7 +2854,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
@@ -2841,7 +2872,7 @@
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
     </row>
-    <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="21.75" customHeight="1">
       <c r="A12" s="51" t="s">
         <v>30</v>
       </c>
@@ -2855,7 +2886,7 @@
       <c r="G12" s="38"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
         <v>32</v>
       </c>
@@ -2871,7 +2902,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
@@ -2885,7 +2916,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
@@ -2899,7 +2930,7 @@
       <c r="E15" s="43"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="14" t="s">
         <v>39</v>
       </c>
@@ -2914,7 +2945,7 @@
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="14" t="s">
         <v>42</v>
       </c>
@@ -2930,7 +2961,7 @@
       <c r="G17" s="48"/>
       <c r="H17" s="48"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
@@ -2949,7 +2980,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="18" t="s">
         <v>46</v>
       </c>
@@ -2966,7 +2997,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="19" t="s">
         <v>48</v>
       </c>
@@ -2985,7 +3016,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="15" t="s">
         <v>51</v>
       </c>
@@ -3004,7 +3035,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="15" t="s">
         <v>54</v>
       </c>
@@ -3023,7 +3054,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="18.95" customHeight="1">
       <c r="A23" s="36" t="s">
         <v>56</v>
       </c>
@@ -3040,7 +3071,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="24" customHeight="1">
       <c r="A24" s="46" t="s">
         <v>294</v>
       </c>
@@ -3055,7 +3086,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="19.5" customHeight="1">
       <c r="A25" s="34" t="s">
         <v>60</v>
       </c>
@@ -3074,7 +3105,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="19.5" customHeight="1">
       <c r="A26" s="21" t="s">
         <v>295</v>
       </c>
@@ -3093,7 +3124,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="19.5" customHeight="1">
       <c r="A27" s="21" t="s">
         <v>300</v>
       </c>
@@ -3110,7 +3141,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="25.5" customHeight="1">
       <c r="A28" s="44" t="s">
         <v>58</v>
       </c>
@@ -3123,12 +3154,12 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C29" s="43" t="s">
         <v>63</v>
@@ -3138,12 +3169,12 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>65</v>
@@ -3153,12 +3184,12 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C31" s="43" t="s">
         <v>67</v>
@@ -3168,12 +3199,12 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>69</v>
@@ -3183,12 +3214,12 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C33" s="43" t="s">
         <v>71</v>
@@ -3198,7 +3229,7 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
     </row>
-    <row r="34" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="25.5" customHeight="1">
       <c r="A34" s="40" t="s">
         <v>72</v>
       </c>
@@ -3208,7 +3239,7 @@
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="23" t="s">
         <v>73</v>
       </c>
@@ -3223,7 +3254,7 @@
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="23" t="s">
         <v>75</v>
       </c>
@@ -3238,7 +3269,7 @@
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="23" t="s">
         <v>77</v>
       </c>
@@ -3253,7 +3284,7 @@
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="23" t="s">
         <v>79</v>
       </c>
@@ -3268,12 +3299,12 @@
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="23" t="s">
         <v>81</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C39" s="38" t="s">
         <v>82</v>
@@ -3283,7 +3314,7 @@
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="23" t="s">
         <v>83</v>
       </c>
@@ -3298,7 +3329,7 @@
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="23" t="s">
         <v>85</v>
       </c>
@@ -3313,7 +3344,7 @@
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="23" t="s">
         <v>87</v>
       </c>
@@ -3328,8 +3359,40 @@
       <c r="F42" s="39"/>
       <c r="G42" s="39"/>
     </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="40">
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="B8:C8"/>
@@ -3373,7 +3436,7 @@
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
@@ -3384,7 +3447,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B9 B22 B35:B42 B25:B27 B29:B33</xm:sqref>
+          <xm:sqref>B9 B22 B35:B44 B25:B27 B29:B33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
@@ -3472,19 +3535,19 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="26.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3510,7 +3573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3536,7 +3599,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3560,7 +3623,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3584,7 +3647,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3608,7 +3671,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3630,7 +3693,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="27.75" customHeight="1">
       <c r="A7" s="52" t="s">
         <v>17</v>
       </c>
@@ -3669,7 +3732,7 @@
       <c r="AF7" s="60"/>
       <c r="AG7" s="60"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -3708,7 +3771,7 @@
       <c r="AF8" s="60"/>
       <c r="AG8" s="60"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33">
       <c r="A9" s="10"/>
       <c r="B9" s="24"/>
       <c r="C9" s="55" t="s">
@@ -3743,7 +3806,7 @@
       <c r="AF9" s="60"/>
       <c r="AG9" s="60"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33">
       <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
@@ -3780,7 +3843,7 @@
       <c r="AF10" s="60"/>
       <c r="AG10" s="60"/>
     </row>
-    <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="18.75">
       <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
@@ -3819,7 +3882,7 @@
       <c r="AF11" s="60"/>
       <c r="AG11" s="60"/>
     </row>
-    <row r="12" spans="1:33" ht="21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="21">
       <c r="A12" s="51" t="s">
         <v>30</v>
       </c>
@@ -3856,7 +3919,7 @@
       <c r="AF12" s="60"/>
       <c r="AG12" s="60"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33">
       <c r="A13" s="10" t="s">
         <v>32</v>
       </c>
@@ -3895,7 +3958,7 @@
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33">
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
@@ -3932,7 +3995,7 @@
       <c r="AF14" s="60"/>
       <c r="AG14" s="60"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33">
       <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
@@ -3969,7 +4032,7 @@
       <c r="AF15" s="60"/>
       <c r="AG15" s="60"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33">
       <c r="A16" s="14" t="s">
         <v>39</v>
       </c>
@@ -4007,7 +4070,7 @@
       <c r="AF16" s="60"/>
       <c r="AG16" s="60"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33">
       <c r="A17" s="15" t="s">
         <v>44</v>
       </c>
@@ -4045,7 +4108,7 @@
       <c r="AF17" s="60"/>
       <c r="AG17" s="60"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33">
       <c r="A18" s="18" t="s">
         <v>46</v>
       </c>
@@ -4081,7 +4144,7 @@
       <c r="AF18" s="60"/>
       <c r="AG18" s="60"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33">
       <c r="A19" s="19" t="s">
         <v>48</v>
       </c>
@@ -4117,7 +4180,7 @@
       <c r="AF19" s="60"/>
       <c r="AG19" s="60"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33">
       <c r="A20" s="15" t="s">
         <v>51</v>
       </c>
@@ -4155,7 +4218,7 @@
       <c r="AF20" s="60"/>
       <c r="AG20" s="60"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33">
       <c r="A21" s="26" t="s">
         <v>56</v>
       </c>
@@ -4191,7 +4254,7 @@
       <c r="AF21" s="60"/>
       <c r="AG21" s="60"/>
     </row>
-    <row r="22" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="30" customHeight="1">
       <c r="A22" s="44" t="s">
         <v>58</v>
       </c>
@@ -4227,7 +4290,7 @@
       <c r="AF22" s="60"/>
       <c r="AG22" s="60"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33">
       <c r="A23" s="26" t="s">
         <v>62</v>
       </c>
@@ -4263,7 +4326,7 @@
       <